--- a/data/trans_orig/Q23_tabaco_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q23_tabaco_R-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>8923</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4184</v>
+        <v>4403</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>16069</v>
+        <v>16010</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05330468789305869</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02499524987958971</v>
+        <v>0.02630159838924701</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09599640758324232</v>
+        <v>0.09564128706469131</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -765,19 +765,19 @@
         <v>12255</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7095</v>
+        <v>6210</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>20723</v>
+        <v>20241</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07639916505339561</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04423155492982166</v>
+        <v>0.03871450057345544</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1291864669946399</v>
+        <v>0.1261837752657512</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>21</v>
@@ -786,19 +786,19 @@
         <v>21178</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>13143</v>
+        <v>13206</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>31735</v>
+        <v>31374</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06460586819362521</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04009519794462089</v>
+        <v>0.04028527998826819</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0968115324055478</v>
+        <v>0.09571040711633823</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>42308</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>31826</v>
+        <v>32434</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>54509</v>
+        <v>54023</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2527439047322465</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1901270651304617</v>
+        <v>0.1937606799259725</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3256353520140755</v>
+        <v>0.3227341708709702</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>37</v>
@@ -836,19 +836,19 @@
         <v>34655</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>25758</v>
+        <v>25699</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>46199</v>
+        <v>45995</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2160453057802494</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1605800926437455</v>
+        <v>0.160212926147989</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2880118097688595</v>
+        <v>0.2867353876584383</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>80</v>
@@ -857,19 +857,19 @@
         <v>76963</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>61710</v>
+        <v>62202</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>91282</v>
+        <v>92969</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.234785607575081</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1882531500354</v>
+        <v>0.1897550792380444</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2784656006525014</v>
+        <v>0.2836127999974226</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>46288</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>34968</v>
+        <v>35518</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>58009</v>
+        <v>57830</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2765243113509028</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2088966934865692</v>
+        <v>0.2121847133053993</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3465436627370583</v>
+        <v>0.3454721665497064</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>45</v>
@@ -907,19 +907,19 @@
         <v>44119</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>33855</v>
+        <v>34125</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>55393</v>
+        <v>56042</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2750408458287279</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2110585627698062</v>
+        <v>0.2127378249603066</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3453240381696031</v>
+        <v>0.3493706937832837</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>92</v>
@@ -928,19 +928,19 @@
         <v>90407</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>74543</v>
+        <v>75881</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>106366</v>
+        <v>107621</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2757983840558452</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2274036458753873</v>
+        <v>0.2314831400201203</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3244818589763991</v>
+        <v>0.3283105548014941</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>69874</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>56841</v>
+        <v>57627</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>82706</v>
+        <v>82560</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.417427096023792</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3395688079215696</v>
+        <v>0.3442644670338478</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4940809398075967</v>
+        <v>0.4932118828483661</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>74</v>
@@ -978,19 +978,19 @@
         <v>69379</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>57656</v>
+        <v>58218</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>83061</v>
+        <v>82015</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4325146833376272</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3594325818342732</v>
+        <v>0.3629357514234802</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5178120675560333</v>
+        <v>0.5112875943133318</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>143</v>
@@ -999,19 +999,19 @@
         <v>139254</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>122810</v>
+        <v>123056</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>158186</v>
+        <v>157760</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4248101401754485</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3746456356831012</v>
+        <v>0.3753975531087025</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4825653195482985</v>
+        <v>0.4812655443717824</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>35065</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>23795</v>
+        <v>24404</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>46400</v>
+        <v>47845</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.09628225831824147</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.06533589310383796</v>
+        <v>0.06700865858773003</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1274041031910459</v>
+        <v>0.1313729253091289</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>39</v>
@@ -1124,19 +1124,19 @@
         <v>42397</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>32096</v>
+        <v>31160</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>55746</v>
+        <v>55050</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1637530414224657</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1239662275799901</v>
+        <v>0.1203498295161538</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.215310373905591</v>
+        <v>0.2126232207520444</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>72</v>
@@ -1145,19 +1145,19 @@
         <v>77463</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>61562</v>
+        <v>61795</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>94599</v>
+        <v>94292</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1243176502635035</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0987995403654803</v>
+        <v>0.09917352761312483</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1518187476720712</v>
+        <v>0.1513272168977651</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>132914</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>115955</v>
+        <v>113716</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>153715</v>
+        <v>151360</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3649558268316527</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3183906739749467</v>
+        <v>0.3122409689501891</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4220701736143978</v>
+        <v>0.4156058208822668</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>94</v>
@@ -1195,19 +1195,19 @@
         <v>98802</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>83919</v>
+        <v>83865</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>115497</v>
+        <v>116476</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.381604671854761</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3241236210903832</v>
+        <v>0.323913930521824</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4460884378513597</v>
+        <v>0.4498681693443327</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>221</v>
@@ -1216,19 +1216,19 @@
         <v>231716</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>207382</v>
+        <v>208384</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>256518</v>
+        <v>258591</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3718737381731848</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3328213610716971</v>
+        <v>0.334429263097645</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4116778291591532</v>
+        <v>0.4150044286442904</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>90747</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>74390</v>
+        <v>75217</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>108892</v>
+        <v>108923</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2491747903632532</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2042599994453921</v>
+        <v>0.2065311419030819</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2989957313301458</v>
+        <v>0.2990823339855687</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>49</v>
@@ -1266,19 +1266,19 @@
         <v>49895</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>38176</v>
+        <v>39191</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>62477</v>
+        <v>64096</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.192710448782117</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1474471906243077</v>
+        <v>0.1513703525651297</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2413073908174493</v>
+        <v>0.2475617723675436</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>137</v>
@@ -1287,19 +1287,19 @@
         <v>140642</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>119527</v>
+        <v>121925</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>163049</v>
+        <v>161723</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2257127839313285</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1918248624411122</v>
+        <v>0.1956731165400331</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2616733146989463</v>
+        <v>0.2595453202606033</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>105465</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>88736</v>
+        <v>89337</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>122244</v>
+        <v>124429</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2895871244868526</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.24365239193923</v>
+        <v>0.2453024152236762</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3356572575673189</v>
+        <v>0.3416573758392536</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>66</v>
@@ -1337,19 +1337,19 @@
         <v>67817</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>54139</v>
+        <v>54637</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>82743</v>
+        <v>82674</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2619318379406562</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2091012692775804</v>
+        <v>0.2110256688618994</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3195791511667617</v>
+        <v>0.3193150484932597</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>172</v>
@@ -1358,19 +1358,19 @@
         <v>173282</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>152401</v>
+        <v>152098</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>197742</v>
+        <v>196198</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2780958276319833</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2445833094083859</v>
+        <v>0.2440984266303265</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3173506506787606</v>
+        <v>0.3148731502254934</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>34988</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>24550</v>
+        <v>24591</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>50248</v>
+        <v>48794</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.09374753386968226</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.06577946107018311</v>
+        <v>0.06588786484026476</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1346347244610519</v>
+        <v>0.1307378522918301</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>47</v>
@@ -1483,19 +1483,19 @@
         <v>49449</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>36255</v>
+        <v>37642</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>63190</v>
+        <v>64194</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1665558229712951</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1221158173628797</v>
+        <v>0.1267860203925653</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2128372353215562</v>
+        <v>0.2162189100973369</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>79</v>
@@ -1504,19 +1504,19 @@
         <v>84438</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>67224</v>
+        <v>67747</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>101773</v>
+        <v>103559</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1260051776989825</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1003170094324914</v>
+        <v>0.1010982499961162</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1518741769988808</v>
+        <v>0.1545401797899821</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>134232</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>113345</v>
+        <v>113814</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>153934</v>
+        <v>151421</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3596582289267711</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3036942690836774</v>
+        <v>0.3049503170283688</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4124478555805844</v>
+        <v>0.4057159709720611</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>111</v>
@@ -1554,19 +1554,19 @@
         <v>114250</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>97772</v>
+        <v>96861</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>130140</v>
+        <v>129307</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3848198813756354</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.3293171279270852</v>
+        <v>0.3262486483166659</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.4383388384338295</v>
+        <v>0.4355347599022543</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>240</v>
@@ -1575,19 +1575,19 @@
         <v>248482</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>222618</v>
+        <v>224250</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>276387</v>
+        <v>273069</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3708060753171641</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.3322100940144994</v>
+        <v>0.3346457772307259</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.4124490453929369</v>
+        <v>0.4074964292063902</v>
       </c>
     </row>
     <row r="16">
@@ -1604,19 +1604,19 @@
         <v>99122</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>82228</v>
+        <v>84163</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>116719</v>
+        <v>116984</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2655869186718745</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2203208453973507</v>
+        <v>0.2255044889135055</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3127354554635114</v>
+        <v>0.3134451873468491</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>53</v>
@@ -1625,19 +1625,19 @@
         <v>55907</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>44575</v>
+        <v>43277</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>71042</v>
+        <v>70451</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.188306230790022</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1501374327613763</v>
+        <v>0.1457657583468746</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2392858210928644</v>
+        <v>0.2372949481582819</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>152</v>
@@ -1646,19 +1646,19 @@
         <v>155029</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>135103</v>
+        <v>132651</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>177237</v>
+        <v>176317</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2313477827803968</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2016116317973597</v>
+        <v>0.197952756149411</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2644884741056737</v>
+        <v>0.2631147783364521</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>104878</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>88737</v>
+        <v>88648</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>124174</v>
+        <v>124420</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2810073185316722</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2377602370542311</v>
+        <v>0.2375231496469335</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3327105069976238</v>
+        <v>0.333368188945204</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>75</v>
@@ -1696,19 +1696,19 @@
         <v>77287</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>63364</v>
+        <v>63476</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>94370</v>
+        <v>93645</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2603180648630475</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.213424246469534</v>
+        <v>0.2138006079546443</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3178589884743698</v>
+        <v>0.315416009908436</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>177</v>
@@ -1717,19 +1717,19 @@
         <v>182164</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>161563</v>
+        <v>159541</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>206907</v>
+        <v>205867</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2718409642034566</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2410982486977466</v>
+        <v>0.2380806583135075</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3087646028175913</v>
+        <v>0.3072128998521335</v>
       </c>
     </row>
     <row r="18">
@@ -1821,19 +1821,19 @@
         <v>32377</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>21929</v>
+        <v>21307</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>44543</v>
+        <v>44302</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1017025449681576</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06888481674854738</v>
+        <v>0.06693039544650774</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1399201260973724</v>
+        <v>0.1391612826704391</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>57</v>
@@ -1842,19 +1842,19 @@
         <v>60178</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>47525</v>
+        <v>47978</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>75145</v>
+        <v>73472</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3174138898792525</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.250673612068491</v>
+        <v>0.2530642501264043</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3963602786382083</v>
+        <v>0.3875371350124228</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>85</v>
@@ -1863,19 +1863,19 @@
         <v>92555</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>74226</v>
+        <v>76718</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>111702</v>
+        <v>111992</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.182217202118403</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1461314163402144</v>
+        <v>0.1510377108378959</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2199132769940848</v>
+        <v>0.220483638604506</v>
       </c>
     </row>
     <row r="20">
@@ -1892,19 +1892,19 @@
         <v>104978</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>88829</v>
+        <v>88258</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>123087</v>
+        <v>122862</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3297569317276438</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2790305549520247</v>
+        <v>0.27723513725575</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3866426938620121</v>
+        <v>0.385933681739784</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>69</v>
@@ -1913,19 +1913,19 @@
         <v>71691</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>59379</v>
+        <v>58443</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>85901</v>
+        <v>84403</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3781431488485391</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3132009942438541</v>
+        <v>0.3082625993465919</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.453094921257185</v>
+        <v>0.4451930196322946</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>167</v>
@@ -1934,19 +1934,19 @@
         <v>176669</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>155739</v>
+        <v>156477</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>198173</v>
+        <v>199601</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3478171764676313</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3066108493150061</v>
+        <v>0.3080638567967112</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3901532733033376</v>
+        <v>0.3929632709862866</v>
       </c>
     </row>
     <row r="21">
@@ -1963,19 +1963,19 @@
         <v>70032</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>56399</v>
+        <v>56813</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>87234</v>
+        <v>87425</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2199845435794363</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1771615644255574</v>
+        <v>0.1784619575431647</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2740200914591673</v>
+        <v>0.2746205797514668</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>22</v>
@@ -1984,19 +1984,19 @@
         <v>22522</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>14355</v>
+        <v>13997</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>31888</v>
+        <v>32593</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.11879419388813</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.07571889897032802</v>
+        <v>0.07382885828482988</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1681983101393855</v>
+        <v>0.1719155082079422</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>88</v>
@@ -2005,19 +2005,19 @@
         <v>92554</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>75428</v>
+        <v>74516</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>110756</v>
+        <v>109523</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1822150590135371</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1484982652735169</v>
+        <v>0.1467024437338886</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2180514932358794</v>
+        <v>0.215622478690205</v>
       </c>
     </row>
     <row r="22">
@@ -2034,19 +2034,19 @@
         <v>110962</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>95005</v>
+        <v>93471</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>129313</v>
+        <v>128755</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3485559797247623</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2984295690327177</v>
+        <v>0.2936129235534128</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4061980031082441</v>
+        <v>0.40444608908478</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>35</v>
@@ -2055,19 +2055,19 @@
         <v>35197</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>25111</v>
+        <v>26035</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>48497</v>
+        <v>47416</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1856487673840784</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1324512350593263</v>
+        <v>0.1373250909008042</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2558033404384003</v>
+        <v>0.2501026132862019</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>138</v>
@@ -2076,19 +2076,19 @@
         <v>146159</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>124216</v>
+        <v>123570</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>165856</v>
+        <v>166652</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2877505624004286</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2445491115873875</v>
+        <v>0.2432775418469524</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3265290038799261</v>
+        <v>0.3280967653319828</v>
       </c>
     </row>
     <row r="23">
@@ -2180,19 +2180,19 @@
         <v>27618</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>18579</v>
+        <v>18738</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>39001</v>
+        <v>38251</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.121586228100204</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.08179191470367221</v>
+        <v>0.08249424470643835</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1717023988987522</v>
+        <v>0.1684003567881744</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>33</v>
@@ -2201,19 +2201,19 @@
         <v>33314</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>25575</v>
+        <v>25420</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>40634</v>
+        <v>41283</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5644652774367732</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.4333381858113113</v>
+        <v>0.4307069222493629</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.688484831412692</v>
+        <v>0.6994888835906615</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>61</v>
@@ -2222,19 +2222,19 @@
         <v>60932</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>49411</v>
+        <v>48177</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>75373</v>
+        <v>76708</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2129268901678105</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1726645318973162</v>
+        <v>0.1683541833431011</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2633910384308319</v>
+        <v>0.2680560613581555</v>
       </c>
     </row>
     <row r="25">
@@ -2251,19 +2251,19 @@
         <v>70614</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>56890</v>
+        <v>57438</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>84741</v>
+        <v>86519</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3108741356359581</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2504579035231256</v>
+        <v>0.2528700698511946</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3730696945266518</v>
+        <v>0.3808981065440417</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>12</v>
@@ -2272,19 +2272,19 @@
         <v>12502</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>6895</v>
+        <v>6499</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>19567</v>
+        <v>18891</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2118360950942122</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1168235807287253</v>
+        <v>0.110113601723576</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3315447325208572</v>
+        <v>0.3200876965297854</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>83</v>
@@ -2293,19 +2293,19 @@
         <v>83116</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>67958</v>
+        <v>68657</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>98447</v>
+        <v>98709</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2904482423666497</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2374788225761545</v>
+        <v>0.239922162944128</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3440204246310214</v>
+        <v>0.3449364088039513</v>
       </c>
     </row>
     <row r="26">
@@ -2322,19 +2322,19 @@
         <v>31886</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>22710</v>
+        <v>23190</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>43237</v>
+        <v>43200</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1403755378852823</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.09998104529408376</v>
+        <v>0.1020929725655374</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1903497305617453</v>
+        <v>0.1901865023919194</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5</v>
@@ -2343,19 +2343,19 @@
         <v>5805</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2038</v>
+        <v>2055</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>12503</v>
+        <v>12486</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.09835498907381203</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.03452595463392896</v>
+        <v>0.03481854096231419</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.211845518575896</v>
+        <v>0.2115543898403833</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>39</v>
@@ -2364,19 +2364,19 @@
         <v>37691</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>26739</v>
+        <v>27530</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>49726</v>
+        <v>49494</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.131709097793719</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.09343752786954064</v>
+        <v>0.09620290958593399</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1737664247239694</v>
+        <v>0.1729556133137058</v>
       </c>
     </row>
     <row r="27">
@@ -2393,19 +2393,19 @@
         <v>97028</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>81363</v>
+        <v>84641</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>111538</v>
+        <v>114274</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.4271640983785556</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.358199313606016</v>
+        <v>0.3726300617523318</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4910441130895812</v>
+        <v>0.5030877763409926</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>7</v>
@@ -2414,19 +2414,19 @@
         <v>7398</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>3192</v>
+        <v>2986</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>14539</v>
+        <v>14447</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1253436383952026</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.05408494754834153</v>
+        <v>0.05060214176202583</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.246352428963251</v>
+        <v>0.2447874885286734</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>103</v>
@@ -2435,19 +2435,19 @@
         <v>104426</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>88405</v>
+        <v>88694</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>119754</v>
+        <v>121352</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3649157696718208</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.3089296504059558</v>
+        <v>0.3099396929639981</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.4184786583746983</v>
+        <v>0.4240616002932059</v>
       </c>
     </row>
     <row r="28">
@@ -2539,19 +2539,19 @@
         <v>25893</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>17264</v>
+        <v>17840</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>35149</v>
+        <v>35801</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1791164288628175</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1194205584102464</v>
+        <v>0.1234041449012641</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2431403112043027</v>
+        <v>0.2476512075083936</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>14</v>
@@ -2560,19 +2560,19 @@
         <v>13562</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>9288</v>
+        <v>9625</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>16403</v>
+        <v>16450</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.749645172037481</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.5133884357920595</v>
+        <v>0.5320154274649088</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9067178098882295</v>
+        <v>0.9093075683648113</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>41</v>
@@ -2581,19 +2581,19 @@
         <v>39455</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>30340</v>
+        <v>30736</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>51324</v>
+        <v>51537</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.24257425445349</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1865318474579513</v>
+        <v>0.1889654957253974</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.315540709396375</v>
+        <v>0.3168493791302657</v>
       </c>
     </row>
     <row r="30">
@@ -2610,19 +2610,19 @@
         <v>38037</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>28133</v>
+        <v>28059</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>48661</v>
+        <v>48450</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2631190309376901</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1946112830659208</v>
+        <v>0.1940942108355344</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3366070486164722</v>
+        <v>0.3351522383613615</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>4</v>
@@ -2631,19 +2631,19 @@
         <v>3633</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>918</v>
+        <v>936</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>7869</v>
+        <v>7676</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2008000838518656</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.05073422729313905</v>
+        <v>0.051765013734956</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4349778666617446</v>
+        <v>0.4242832128031906</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>44</v>
@@ -2652,19 +2652,19 @@
         <v>41670</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>32348</v>
+        <v>31891</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>53729</v>
+        <v>53476</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2561875223634483</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1988791323065764</v>
+        <v>0.196068767248165</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3303308186997105</v>
+        <v>0.3287731575762046</v>
       </c>
     </row>
     <row r="31">
@@ -2681,19 +2681,19 @@
         <v>22733</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>14973</v>
+        <v>14828</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>32288</v>
+        <v>32149</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1572527848693929</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1035729755404941</v>
+        <v>0.1025750022275327</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2233524047532358</v>
+        <v>0.2223903557059282</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>0</v>
@@ -2715,19 +2715,19 @@
         <v>22733</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>14795</v>
+        <v>14713</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>32762</v>
+        <v>31696</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.139762132706344</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.09096053458610165</v>
+        <v>0.09045848688261168</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2014197998599581</v>
+        <v>0.1948682287112425</v>
       </c>
     </row>
     <row r="32">
@@ -2744,19 +2744,19 @@
         <v>57899</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>47056</v>
+        <v>47313</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>69109</v>
+        <v>69635</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.4005117553300995</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3255099597239345</v>
+        <v>0.3272848051191501</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.478061117227377</v>
+        <v>0.4816978845023912</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1</v>
@@ -2768,7 +2768,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>3684</v>
+        <v>4561</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.04955474411065337</v>
@@ -2777,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2036594439686329</v>
+        <v>0.252120564503466</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>62</v>
@@ -2786,19 +2786,19 @@
         <v>58795</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>46794</v>
+        <v>46938</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>70471</v>
+        <v>70362</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3614760904767177</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2876933609969788</v>
+        <v>0.2885801609544882</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4332589979254721</v>
+        <v>0.4325902328358376</v>
       </c>
     </row>
     <row r="33">
@@ -2890,19 +2890,19 @@
         <v>20964</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>13095</v>
+        <v>13453</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>30225</v>
+        <v>29899</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1749131504716055</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1092577288143612</v>
+        <v>0.1122415526594641</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2521769192769019</v>
+        <v>0.2494567900276447</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>3</v>
@@ -2911,19 +2911,19 @@
         <v>3357</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>993</v>
+        <v>942</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>7522</v>
+        <v>7374</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2420672240759021</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.07157636016057112</v>
+        <v>0.0679495681878667</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.5423788476140636</v>
+        <v>0.5316902993099586</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>23</v>
@@ -2932,19 +2932,19 @@
         <v>24321</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>16541</v>
+        <v>15952</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>33850</v>
+        <v>34816</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1818780469793429</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1236987094277621</v>
+        <v>0.1192924025667855</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2531310021154224</v>
+        <v>0.2603540582223622</v>
       </c>
     </row>
     <row r="35">
@@ -2961,19 +2961,19 @@
         <v>25670</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>17579</v>
+        <v>18107</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>35468</v>
+        <v>35688</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2141771568529541</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.146668639209253</v>
+        <v>0.1510766461315572</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.295923207091854</v>
+        <v>0.2977634932210419</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>4</v>
@@ -2982,19 +2982,19 @@
         <v>5343</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>1791</v>
+        <v>1251</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>9539</v>
+        <v>10147</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.3852144041580137</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1291630303392781</v>
+        <v>0.09016975244867032</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.6877940716587638</v>
+        <v>0.7316030339629273</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>30</v>
@@ -3003,19 +3003,19 @@
         <v>31013</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>22134</v>
+        <v>21637</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>41136</v>
+        <v>41163</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2319163149190376</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1655231544736575</v>
+        <v>0.1618018771064796</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.307622186535273</v>
+        <v>0.3078202744985362</v>
       </c>
     </row>
     <row r="36">
@@ -3032,19 +3032,19 @@
         <v>11067</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>5736</v>
+        <v>6140</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>18038</v>
+        <v>18690</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.09233695245767645</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.04785570782683131</v>
+        <v>0.05122730189656956</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1505004330258466</v>
+        <v>0.155939905998933</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>1</v>
@@ -3056,7 +3056,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>4783</v>
+        <v>5004</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.08110293902204357</v>
@@ -3065,7 +3065,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3449054171281076</v>
+        <v>0.3607791944551176</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>14</v>
@@ -3074,19 +3074,19 @@
         <v>12192</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>6490</v>
+        <v>6347</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>19245</v>
+        <v>19374</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.09117181478625591</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.04853596629736076</v>
+        <v>0.04746580790052252</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.143917968906007</v>
+        <v>0.1448835381753442</v>
       </c>
     </row>
     <row r="37">
@@ -3103,19 +3103,19 @@
         <v>62154</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>51614</v>
+        <v>52388</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>72616</v>
+        <v>73083</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.5185727402177639</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.4306350825243226</v>
+        <v>0.4370910931287615</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.6058657413739772</v>
+        <v>0.6097651642198383</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>3</v>
@@ -3124,19 +3124,19 @@
         <v>4044</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>1239</v>
+        <v>1277</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>8246</v>
+        <v>9135</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2916154327440407</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.08931828472613744</v>
+        <v>0.0920949199589198</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.5945513783089393</v>
+        <v>0.6586941684757665</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>66</v>
@@ -3145,19 +3145,19 @@
         <v>66198</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>54604</v>
+        <v>55706</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>76917</v>
+        <v>78981</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.4950338233153636</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.4083365098739963</v>
+        <v>0.4165728148734587</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.5751935639976051</v>
+        <v>0.5906233158482993</v>
       </c>
     </row>
     <row r="38">
@@ -3249,19 +3249,19 @@
         <v>185829</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>162042</v>
+        <v>160764</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>215839</v>
+        <v>213159</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.1083729138211889</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.09450058519713003</v>
+        <v>0.09375554670938244</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.1258742678515741</v>
+        <v>0.1243113197547956</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>205</v>
@@ -3270,19 +3270,19 @@
         <v>214514</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>188123</v>
+        <v>187820</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>245123</v>
+        <v>240620</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.2152063918879373</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.1887300655290423</v>
+        <v>0.1884269549216845</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.2459141176178096</v>
+        <v>0.2413975314295562</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>382</v>
@@ -3291,19 +3291,19 @@
         <v>400342</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>364474</v>
+        <v>362124</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>444017</v>
+        <v>437310</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.1476462560068033</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.1344178634540487</v>
+        <v>0.1335514946960752</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.1637533244398696</v>
+        <v>0.1612798329756153</v>
       </c>
     </row>
     <row r="40">
@@ -3320,19 +3320,19 @@
         <v>548752</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>510556</v>
+        <v>509035</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>588334</v>
+        <v>586903</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.3200248041631676</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.2977493794591334</v>
+        <v>0.2968621154179758</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.3431086146235068</v>
+        <v>0.342273717769046</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>331</v>
@@ -3341,19 +3341,19 @@
         <v>340877</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>313080</v>
+        <v>311685</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>371750</v>
+        <v>372262</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.34197772958145</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.3140909786584818</v>
+        <v>0.312691689152729</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.3729508708513219</v>
+        <v>0.3734637475619787</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>865</v>
@@ -3362,19 +3362,19 @@
         <v>889629</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>841548</v>
+        <v>841015</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>941356</v>
+        <v>936210</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.3280949781154638</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.3103628209839034</v>
+        <v>0.3101663994818348</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.3471719082065945</v>
+        <v>0.3452740841513278</v>
       </c>
     </row>
     <row r="41">
@@ -3391,19 +3391,19 @@
         <v>371876</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>337288</v>
+        <v>339829</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>405766</v>
+        <v>406443</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2168728167309753</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1967020243380053</v>
+        <v>0.1981838232715352</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2366372226718119</v>
+        <v>0.2370322299198903</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>175</v>
@@ -3412,19 +3412,19 @@
         <v>179372</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>155009</v>
+        <v>155906</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>204114</v>
+        <v>205266</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.179951497488199</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1555092329954219</v>
+        <v>0.1564092944265217</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2047735244855483</v>
+        <v>0.2059286940750304</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>546</v>
@@ -3433,19 +3433,19 @@
         <v>551248</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>513017</v>
+        <v>511387</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>596230</v>
+        <v>594394</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2033000712694834</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.189200486080538</v>
+        <v>0.188599504472441</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2198895959601912</v>
+        <v>0.2192123043372094</v>
       </c>
     </row>
     <row r="42">
@@ -3462,19 +3462,19 @@
         <v>608261</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>568445</v>
+        <v>571303</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>647368</v>
+        <v>650273</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.3547294652846681</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.3315093644701953</v>
+        <v>0.3331761470086834</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3775364533622764</v>
+        <v>0.3792304801441185</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>261</v>
@@ -3483,19 +3483,19 @@
         <v>262018</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>235758</v>
+        <v>236129</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>291036</v>
+        <v>290343</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2628643810424137</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2365197931420601</v>
+        <v>0.2368917359900097</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2919754152445539</v>
+        <v>0.2912809067324123</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>861</v>
@@ -3504,19 +3504,19 @@
         <v>870279</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>821605</v>
+        <v>819530</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>920608</v>
+        <v>919690</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.3209586946082496</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.3030077557531237</v>
+        <v>0.3022428051126271</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3395202570995963</v>
+        <v>0.3391815946001931</v>
       </c>
     </row>
     <row r="43">
@@ -3851,19 +3851,19 @@
         <v>7446</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3033</v>
+        <v>3088</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13763</v>
+        <v>14602</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04896289565772938</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01994451365911713</v>
+        <v>0.02030862566864824</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09049728496540552</v>
+        <v>0.09601414575383539</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -3872,19 +3872,19 @@
         <v>7148</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2860</v>
+        <v>2900</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13710</v>
+        <v>14545</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04609530972632609</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0184453956783568</v>
+        <v>0.0187016708600325</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08841378550660281</v>
+        <v>0.09379645872756012</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>14</v>
@@ -3893,19 +3893,19 @@
         <v>14594</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7896</v>
+        <v>8282</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>23441</v>
+        <v>23069</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04751514343655976</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02570670999069062</v>
+        <v>0.02696446652974484</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07631753023826027</v>
+        <v>0.07510713809139287</v>
       </c>
     </row>
     <row r="5">
@@ -3922,19 +3922,19 @@
         <v>48957</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>37472</v>
+        <v>37597</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>60541</v>
+        <v>60364</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3219182216304091</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2463999740688364</v>
+        <v>0.2472227124126</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3980912645819166</v>
+        <v>0.3969307110775135</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>33</v>
@@ -3943,19 +3943,19 @@
         <v>32758</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>23849</v>
+        <v>22629</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>44196</v>
+        <v>42305</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2112496341200408</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1537964150320344</v>
+        <v>0.1459285344601965</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2850122529591471</v>
+        <v>0.2728126220457759</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>82</v>
@@ -3964,19 +3964,19 @@
         <v>81715</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>67432</v>
+        <v>66001</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>97974</v>
+        <v>97204</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2660451990900055</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2195444736909077</v>
+        <v>0.2148847343427542</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3189824128343826</v>
+        <v>0.316472454221074</v>
       </c>
     </row>
     <row r="6">
@@ -3993,19 +3993,19 @@
         <v>30220</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>22076</v>
+        <v>21619</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>40929</v>
+        <v>41739</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1987128549600696</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1451653607579938</v>
+        <v>0.1421570751646124</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2691303893535541</v>
+        <v>0.2744581981305989</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>31</v>
@@ -4014,19 +4014,19 @@
         <v>31908</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>23069</v>
+        <v>23090</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>43331</v>
+        <v>42754</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2057693394274108</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1487652463451435</v>
+        <v>0.1489030848429996</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2794332985405059</v>
+        <v>0.2757132874420028</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>62</v>
@@ -4035,19 +4035,19 @@
         <v>62128</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>50088</v>
+        <v>48963</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>78450</v>
+        <v>77665</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2022754477840074</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1630754478941052</v>
+        <v>0.1594126491342991</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2554161372033755</v>
+        <v>0.2528581681047403</v>
       </c>
     </row>
     <row r="7">
@@ -4064,19 +4064,19 @@
         <v>65455</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>53585</v>
+        <v>53973</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>77713</v>
+        <v>78474</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4304060277517919</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3523552958306047</v>
+        <v>0.3549012669513316</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5110068388216857</v>
+        <v>0.5160100021361578</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>79</v>
@@ -4085,19 +4085,19 @@
         <v>83254</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>70323</v>
+        <v>70155</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>94973</v>
+        <v>95736</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5368857167262223</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4534963314123314</v>
+        <v>0.4524142087088058</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6124616905086555</v>
+        <v>0.6173796705321841</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>142</v>
@@ -4106,19 +4106,19 @@
         <v>148710</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>132659</v>
+        <v>130609</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>166190</v>
+        <v>166367</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4841642096894274</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4319081403206927</v>
+        <v>0.4252316559486478</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5410760229869466</v>
+        <v>0.5416525212575454</v>
       </c>
     </row>
     <row r="8">
@@ -4210,19 +4210,19 @@
         <v>58504</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>44079</v>
+        <v>45926</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>72393</v>
+        <v>75355</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1606122962099197</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1210122709707283</v>
+        <v>0.1260814935873097</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1987422586084125</v>
+        <v>0.206874752628569</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>65</v>
@@ -4231,19 +4231,19 @@
         <v>69923</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>55704</v>
+        <v>56221</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>84254</v>
+        <v>87129</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2163541432284971</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.172357782171455</v>
+        <v>0.1739549617719563</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2606941713059465</v>
+        <v>0.2695917373306071</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>121</v>
@@ -4252,19 +4252,19 @@
         <v>128427</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>108988</v>
+        <v>109326</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>150410</v>
+        <v>150145</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1868183035169443</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1585397283953912</v>
+        <v>0.1590320545945048</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2187955607140827</v>
+        <v>0.2184098135742747</v>
       </c>
     </row>
     <row r="10">
@@ -4281,19 +4281,19 @@
         <v>129456</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>111236</v>
+        <v>112565</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>146824</v>
+        <v>147303</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3553984632385191</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3053777755067583</v>
+        <v>0.3090285048756995</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4030785959115435</v>
+        <v>0.4043930549722043</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>94</v>
@@ -4302,19 +4302,19 @@
         <v>101105</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>84285</v>
+        <v>83962</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>119245</v>
+        <v>117567</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3128347731398454</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2607917508251816</v>
+        <v>0.2597912854472735</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3689625089292543</v>
+        <v>0.3637690359575236</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>223</v>
@@ -4323,19 +4323,19 @@
         <v>230561</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>207473</v>
+        <v>206243</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>254406</v>
+        <v>254308</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3353879247759521</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3018021292510057</v>
+        <v>0.3000128581845121</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3700740485591847</v>
+        <v>0.3699315249038561</v>
       </c>
     </row>
     <row r="11">
@@ -4352,19 +4352,19 @@
         <v>72653</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>57526</v>
+        <v>59334</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>87407</v>
+        <v>89927</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1994567993367767</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1579279381809682</v>
+        <v>0.162892201680495</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2399614875814265</v>
+        <v>0.2468773601642463</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>69</v>
@@ -4373,19 +4373,19 @@
         <v>71350</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>56319</v>
+        <v>57432</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>86332</v>
+        <v>88637</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2207675025795237</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1742601130862906</v>
+        <v>0.1777026668867928</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2671245835012891</v>
+        <v>0.2742553472220372</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>140</v>
@@ -4394,19 +4394,19 @@
         <v>144003</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>122639</v>
+        <v>124857</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>165452</v>
+        <v>166482</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2094756357185553</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1783985245133687</v>
+        <v>0.1816246992084424</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2406766397307339</v>
+        <v>0.2421743604785479</v>
       </c>
     </row>
     <row r="12">
@@ -4423,19 +4423,19 @@
         <v>103643</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>86959</v>
+        <v>87645</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>123288</v>
+        <v>120498</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2845324412147845</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2387311001410888</v>
+        <v>0.2406148543444731</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3384664324618382</v>
+        <v>0.3308069520800204</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>76</v>
@@ -4444,19 +4444,19 @@
         <v>80812</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>65582</v>
+        <v>66774</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>98224</v>
+        <v>97816</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2500435810521337</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.202920585538142</v>
+        <v>0.2066100300479063</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3039210221239932</v>
+        <v>0.302658236912478</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>175</v>
@@ -4465,19 +4465,19 @@
         <v>184454</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>160596</v>
+        <v>160053</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>204729</v>
+        <v>207317</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2683181359885484</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2336123333988203</v>
+        <v>0.2328222508470412</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2978116869004611</v>
+        <v>0.3015756354841665</v>
       </c>
     </row>
     <row r="13">
@@ -4569,19 +4569,19 @@
         <v>76702</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>61461</v>
+        <v>60551</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>93168</v>
+        <v>93776</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1852819298799801</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1484651176341107</v>
+        <v>0.1462683200648311</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2250593497313132</v>
+        <v>0.2265264704156369</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>68</v>
@@ -4590,19 +4590,19 @@
         <v>72701</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>57738</v>
+        <v>58573</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>90022</v>
+        <v>87234</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2028140196453843</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1610723959623422</v>
+        <v>0.1634026932174533</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2511373652798739</v>
+        <v>0.2433576549647024</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>137</v>
@@ -4611,19 +4611,19 @@
         <v>149402</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>126809</v>
+        <v>129346</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>174198</v>
+        <v>173361</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.193417962429563</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1641683348838577</v>
+        <v>0.1674529454342322</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2255183165720731</v>
+        <v>0.2244355013408938</v>
       </c>
     </row>
     <row r="15">
@@ -4640,19 +4640,19 @@
         <v>129738</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>111212</v>
+        <v>110466</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>149375</v>
+        <v>149092</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3133967434732931</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2686457675285201</v>
+        <v>0.2668434175249009</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3608325236973948</v>
+        <v>0.3601490658818516</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>124</v>
@@ -4661,19 +4661,19 @@
         <v>128685</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>110438</v>
+        <v>110860</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>147289</v>
+        <v>148603</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3589936550887973</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.3080911398552584</v>
+        <v>0.3092685738380917</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.4108938971652852</v>
+        <v>0.4145610754143572</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>248</v>
@@ -4682,19 +4682,19 @@
         <v>258422</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>230141</v>
+        <v>232515</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>283857</v>
+        <v>286512</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3345566828774502</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2979438063263137</v>
+        <v>0.3010171665563797</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3674842960331079</v>
+        <v>0.3709218139202484</v>
       </c>
     </row>
     <row r="16">
@@ -4711,19 +4711,19 @@
         <v>78171</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>63397</v>
+        <v>63093</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>96454</v>
+        <v>94574</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1888306637316678</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1531419680522747</v>
+        <v>0.1524075872897314</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2329959355998053</v>
+        <v>0.2284546340871856</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>55</v>
@@ -4732,19 +4732,19 @@
         <v>60755</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>47027</v>
+        <v>46606</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>76012</v>
+        <v>77091</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1694903004678688</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1311926696604405</v>
+        <v>0.1300166269795807</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2120508291847708</v>
+        <v>0.2150624248216903</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>133</v>
@@ -4753,19 +4753,19 @@
         <v>138926</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>119296</v>
+        <v>118676</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>163936</v>
+        <v>160447</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1798554743993881</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1544421844138725</v>
+        <v>0.1536390679168594</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2122340365804122</v>
+        <v>0.2077163264013263</v>
       </c>
     </row>
     <row r="17">
@@ -4782,19 +4782,19 @@
         <v>129363</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>111753</v>
+        <v>110362</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>152546</v>
+        <v>150550</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3124906629150589</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.269953108441123</v>
+        <v>0.2665918011870027</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.368492120346892</v>
+        <v>0.3636708828865142</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>90</v>
@@ -4803,19 +4803,19 @@
         <v>96319</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>79766</v>
+        <v>79893</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>115217</v>
+        <v>112909</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2687020247979495</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2225233595986573</v>
+        <v>0.222880154141615</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3214234589277152</v>
+        <v>0.3149844023499857</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>216</v>
@@ -4824,19 +4824,19 @@
         <v>225681</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>201383</v>
+        <v>198988</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>252745</v>
+        <v>251155</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2921698802935987</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2607129409541931</v>
+        <v>0.2576127115484694</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3272068349536943</v>
+        <v>0.3251480706491657</v>
       </c>
     </row>
     <row r="18">
@@ -4928,19 +4928,19 @@
         <v>66767</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>51813</v>
+        <v>51799</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>86667</v>
+        <v>84980</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1508669615364405</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1170776784053969</v>
+        <v>0.117045592287316</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1958333474088522</v>
+        <v>0.1920205610576455</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>71</v>
@@ -4949,19 +4949,19 @@
         <v>80842</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>65057</v>
+        <v>64219</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>98415</v>
+        <v>97912</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2500731581979496</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2012444264088333</v>
+        <v>0.1986508696449102</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3044308906288048</v>
+        <v>0.3028741606356755</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>126</v>
@@ -4970,19 +4970,19 @@
         <v>147609</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>126771</v>
+        <v>125790</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>171083</v>
+        <v>173166</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1927442713652443</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1655336326471465</v>
+        <v>0.1642530393794487</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.223395888690659</v>
+        <v>0.2261149549900284</v>
       </c>
     </row>
     <row r="20">
@@ -4999,19 +4999,19 @@
         <v>118300</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>98733</v>
+        <v>99558</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>138959</v>
+        <v>138162</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2673115017479397</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2230975703026073</v>
+        <v>0.224961000059313</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3139931964240646</v>
+        <v>0.3121924374880196</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>96</v>
@@ -5020,19 +5020,19 @@
         <v>107135</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>89076</v>
+        <v>89996</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>125407</v>
+        <v>126909</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3314050680460021</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2755436962223499</v>
+        <v>0.2783869019213651</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3879270513410182</v>
+        <v>0.3925714518566067</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>204</v>
@@ -5041,19 +5041,19 @@
         <v>225435</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>195122</v>
+        <v>199641</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>250936</v>
+        <v>252623</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2943669299794538</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2547846936376836</v>
+        <v>0.2606854727330339</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3276653130800018</v>
+        <v>0.329868248542574</v>
       </c>
     </row>
     <row r="21">
@@ -5070,19 +5070,19 @@
         <v>98952</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>79760</v>
+        <v>79633</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>117661</v>
+        <v>118970</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2235915824544981</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1802252124163501</v>
+        <v>0.1799387881472067</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.265868174759488</v>
+        <v>0.2688253105145302</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>44</v>
@@ -5091,19 +5091,19 @@
         <v>51318</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>39279</v>
+        <v>38047</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>67571</v>
+        <v>66591</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1587443706133113</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.121501860868581</v>
+        <v>0.1176919266449569</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.209021676336681</v>
+        <v>0.2059887560467685</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>129</v>
@@ -5112,19 +5112,19 @@
         <v>150270</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>129281</v>
+        <v>130351</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>176897</v>
+        <v>176822</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1962180224028699</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1688109709220423</v>
+        <v>0.1702091764609596</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2309868424335224</v>
+        <v>0.2308900003300174</v>
       </c>
     </row>
     <row r="22">
@@ -5141,19 +5141,19 @@
         <v>158536</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>137732</v>
+        <v>138073</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>179175</v>
+        <v>181063</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3582299542611217</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3112190481792431</v>
+        <v>0.3119911643518535</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4048658086627566</v>
+        <v>0.4091312281504751</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>68</v>
@@ -5162,19 +5162,19 @@
         <v>83980</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>69420</v>
+        <v>69014</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>102765</v>
+        <v>101905</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2597774031427371</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2147397365356799</v>
+        <v>0.2134841666304985</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3178883084053954</v>
+        <v>0.3152272218783763</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>212</v>
@@ -5183,19 +5183,19 @@
         <v>242516</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>215603</v>
+        <v>213014</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>270083</v>
+        <v>269795</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.316670776252432</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2815288613254002</v>
+        <v>0.278147689477041</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.352666615859511</v>
+        <v>0.3522910802869506</v>
       </c>
     </row>
     <row r="23">
@@ -5287,19 +5287,19 @@
         <v>55170</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>42049</v>
+        <v>41056</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>70661</v>
+        <v>71719</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1904073865180994</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1451231263757459</v>
+        <v>0.1416970359947375</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.243870249471562</v>
+        <v>0.2475222413696353</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>40</v>
@@ -5308,19 +5308,19 @@
         <v>45269</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>34040</v>
+        <v>34305</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>57888</v>
+        <v>57314</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3857040621382954</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2900364443088476</v>
+        <v>0.2922875063969969</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4932236018138332</v>
+        <v>0.4883319357811209</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>88</v>
@@ -5329,19 +5329,19 @@
         <v>100438</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>83899</v>
+        <v>82717</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>120326</v>
+        <v>121292</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2467090387395813</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.206082091619994</v>
+        <v>0.2031784755515189</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2955584331200164</v>
+        <v>0.297932179644733</v>
       </c>
     </row>
     <row r="25">
@@ -5358,19 +5358,19 @@
         <v>81332</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>65476</v>
+        <v>65326</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>99022</v>
+        <v>98959</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2807011480807977</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2259750448327359</v>
+        <v>0.2254576323906357</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3417544010768945</v>
+        <v>0.3415347570196914</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>36</v>
@@ -5379,19 +5379,19 @@
         <v>41928</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>31742</v>
+        <v>31652</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>54086</v>
+        <v>53110</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3572409058915789</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2704522496629314</v>
+        <v>0.2696856236831519</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.46083471595109</v>
+        <v>0.4525143947450123</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>109</v>
@@ -5400,19 +5400,19 @@
         <v>123260</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>103146</v>
+        <v>104286</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>141915</v>
+        <v>143629</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3027666277500964</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2533605820107444</v>
+        <v>0.2561609685838171</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3485879125062964</v>
+        <v>0.3527990797430505</v>
       </c>
     </row>
     <row r="26">
@@ -5429,19 +5429,19 @@
         <v>39695</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>28369</v>
+        <v>29586</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>53018</v>
+        <v>52545</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.136999634913588</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.09790911280317489</v>
+        <v>0.1021113945554295</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1829803218209141</v>
+        <v>0.1813489291823336</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>14</v>
@@ -5450,19 +5450,19 @@
         <v>15494</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>9146</v>
+        <v>8322</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>25015</v>
+        <v>25035</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1320103054503012</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.07792445281477876</v>
+        <v>0.07090611531401449</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2131397574094128</v>
+        <v>0.2133032305518539</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>52</v>
@@ -5471,19 +5471,19 @@
         <v>55189</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>42620</v>
+        <v>42145</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>72446</v>
+        <v>70251</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1355612720158669</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1046876986171765</v>
+        <v>0.1035220541970159</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1779502055441983</v>
+        <v>0.1725580076996018</v>
       </c>
     </row>
     <row r="27">
@@ -5500,19 +5500,19 @@
         <v>113549</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>95743</v>
+        <v>94810</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>130628</v>
+        <v>129701</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3918918304875148</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3304357604981862</v>
+        <v>0.3272166996088193</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4508360048429105</v>
+        <v>0.4476351059872931</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>14</v>
@@ -5521,19 +5521,19 @@
         <v>14676</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>8792</v>
+        <v>9156</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>23824</v>
+        <v>23974</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1250447265198244</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.07491191577865794</v>
+        <v>0.07801240683560966</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2029858310295725</v>
+        <v>0.2042664288695238</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>119</v>
@@ -5542,19 +5542,19 @@
         <v>128226</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>109335</v>
+        <v>108838</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>148632</v>
+        <v>148344</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3149630614944554</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2685609005685034</v>
+        <v>0.2673400781217649</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3650887561157661</v>
+        <v>0.3643793844662564</v>
       </c>
     </row>
     <row r="28">
@@ -5646,19 +5646,19 @@
         <v>41211</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>29504</v>
+        <v>29101</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>55297</v>
+        <v>54713</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1944625495246974</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1392234085610426</v>
+        <v>0.1373221328087124</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2609324620314162</v>
+        <v>0.2581770176720527</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>17</v>
@@ -5667,19 +5667,19 @@
         <v>19083</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>12727</v>
+        <v>12522</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>23804</v>
+        <v>23835</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.6641785907413559</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.4429723630501528</v>
+        <v>0.4358337887542316</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8284817025761528</v>
+        <v>0.8295622256587541</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>52</v>
@@ -5688,19 +5688,19 @@
         <v>60294</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>47056</v>
+        <v>46552</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>76491</v>
+        <v>75693</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2505420878906569</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1955359287656518</v>
+        <v>0.1934392004183537</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3178469067336323</v>
+        <v>0.3145318164996113</v>
       </c>
     </row>
     <row r="30">
@@ -5717,19 +5717,19 @@
         <v>56743</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>44825</v>
+        <v>43419</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>71584</v>
+        <v>70139</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2677575073837873</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2115153803379009</v>
+        <v>0.2048821449207019</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3377879313514987</v>
+        <v>0.3309692889670171</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>3</v>
@@ -5738,19 +5738,19 @@
         <v>3161</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>923</v>
+        <v>977</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>7954</v>
+        <v>8037</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1100204747744299</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.03213411346206551</v>
+        <v>0.03400745120626094</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2768447898847717</v>
+        <v>0.2797200655979435</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>55</v>
@@ -5759,19 +5759,19 @@
         <v>59905</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>46290</v>
+        <v>47108</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>74876</v>
+        <v>75067</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2489252359777765</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.192351450190579</v>
+        <v>0.1957508196845652</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3111377513829849</v>
+        <v>0.3119310423952535</v>
       </c>
     </row>
     <row r="31">
@@ -5788,19 +5788,19 @@
         <v>28005</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>18746</v>
+        <v>18724</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>40433</v>
+        <v>40813</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1321493420007519</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.0884589850017016</v>
+        <v>0.08835465877264191</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1907925556550133</v>
+        <v>0.1925859676176778</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>2</v>
@@ -5812,7 +5812,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>6074</v>
+        <v>7542</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.06504322482120102</v>
@@ -5821,7 +5821,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2114158448960139</v>
+        <v>0.2625054575522518</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>27</v>
@@ -5830,19 +5830,19 @@
         <v>29874</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>19971</v>
+        <v>20564</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>41806</v>
+        <v>42168</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1241375226402431</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.08298757653957391</v>
+        <v>0.08545191258789155</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1737198903734911</v>
+        <v>0.1752223027568809</v>
       </c>
     </row>
     <row r="32">
@@ -5859,19 +5859,19 @@
         <v>85962</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>70767</v>
+        <v>70788</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>101318</v>
+        <v>101183</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.4056306010907633</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3339289231746551</v>
+        <v>0.3340285947687953</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.478092124750904</v>
+        <v>0.477456605648462</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>4</v>
@@ -5880,19 +5880,19 @@
         <v>4619</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1645</v>
+        <v>1706</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>11303</v>
+        <v>10790</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1607577096630132</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.05725787082517098</v>
+        <v>0.0593865155710403</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3934070412595302</v>
+        <v>0.3755306195326926</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>86</v>
@@ -5901,19 +5901,19 @@
         <v>90581</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>75300</v>
+        <v>75304</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>106196</v>
+        <v>107867</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3763951534913235</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3128992533265816</v>
+        <v>0.3129156133745736</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4412826386686163</v>
+        <v>0.4482282880522263</v>
       </c>
     </row>
     <row r="33">
@@ -6005,19 +6005,19 @@
         <v>30194</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>20593</v>
+        <v>20454</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>43133</v>
+        <v>43818</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1872036804721293</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1276768109229012</v>
+        <v>0.1268162277786175</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2674310842610289</v>
+        <v>0.2716751573767375</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>8</v>
@@ -6026,7 +6026,7 @@
         <v>9431</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>5884</v>
+        <v>4844</v>
       </c>
       <c r="M34" s="5" t="n">
         <v>10436</v>
@@ -6035,7 +6035,7 @@
         <v>0.9037204156562059</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.5638013467073024</v>
+        <v>0.4642011304988532</v>
       </c>
       <c r="P34" s="6" t="n">
         <v>1</v>
@@ -6047,19 +6047,19 @@
         <v>39625</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>28561</v>
+        <v>29341</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>53896</v>
+        <v>54737</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2307496110641829</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.166320096147383</v>
+        <v>0.1708637849001067</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3138544262563965</v>
+        <v>0.31874924874333</v>
       </c>
     </row>
     <row r="35">
@@ -6076,19 +6076,19 @@
         <v>31812</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>22417</v>
+        <v>22270</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>43207</v>
+        <v>42905</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1972385584592608</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1389896146031</v>
+        <v>0.1380759705858969</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2678900776475062</v>
+        <v>0.2660136418456174</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>1</v>
@@ -6100,7 +6100,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>4552</v>
+        <v>5592</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.09627958434379411</v>
@@ -6109,7 +6109,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.4361986532926976</v>
+        <v>0.5357988695011466</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>31</v>
@@ -6118,19 +6118,19 @@
         <v>32817</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>24319</v>
+        <v>22955</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>45744</v>
+        <v>44883</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1911028295033312</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1416187989235508</v>
+        <v>0.1336771921653232</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.266380390045309</v>
+        <v>0.2613664784525577</v>
       </c>
     </row>
     <row r="36">
@@ -6147,19 +6147,19 @@
         <v>25651</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>17089</v>
+        <v>17302</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>37155</v>
+        <v>36525</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1590407931936993</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1059565853780838</v>
+        <v>0.1072759399595483</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2303633410367676</v>
+        <v>0.2264573928018627</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>0</v>
@@ -6181,19 +6181,19 @@
         <v>25651</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>17167</v>
+        <v>17585</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>35349</v>
+        <v>36760</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1493751719993265</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.09997201046683668</v>
+        <v>0.1024038200299135</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2058464516391186</v>
+        <v>0.2140653038811014</v>
       </c>
     </row>
     <row r="37">
@@ -6210,19 +6210,19 @@
         <v>73630</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>59461</v>
+        <v>60973</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>87282</v>
+        <v>87809</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.4565169678749106</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.3686682211509018</v>
+        <v>0.3780409465584553</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.5411565853831747</v>
+        <v>0.5444287120822933</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>0</v>
@@ -6244,19 +6244,19 @@
         <v>73630</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>60443</v>
+        <v>61050</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>87280</v>
+        <v>86987</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.4287723874331594</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.3519803939809364</v>
+        <v>0.3555168533179809</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.5082584494406462</v>
+        <v>0.5065568434579014</v>
       </c>
     </row>
     <row r="38">
@@ -6348,19 +6348,19 @@
         <v>335993</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>299677</v>
+        <v>298249</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>373420</v>
+        <v>371970</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.1650408734302843</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.1472021010143859</v>
+        <v>0.1465009193470055</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.1834252018584849</v>
+        <v>0.1827127066491294</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>276</v>
@@ -6369,19 +6369,19 @@
         <v>304397</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>271170</v>
+        <v>269916</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>336472</v>
+        <v>336504</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.2312124832615971</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.2059739053523476</v>
+        <v>0.2050217704630911</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.2555754634838352</v>
+        <v>0.2555996087788476</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>570</v>
@@ -6390,19 +6390,19 @@
         <v>640390</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>590775</v>
+        <v>593541</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>692247</v>
+        <v>689152</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.1910276654103391</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.1762273383936382</v>
+        <v>0.1770525891365014</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.2064962899747552</v>
+        <v>0.2055730431687565</v>
       </c>
     </row>
     <row r="40">
@@ -6419,19 +6419,19 @@
         <v>596339</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>555154</v>
+        <v>554775</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>639653</v>
+        <v>638114</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.2929233353163833</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.2726931793654521</v>
+        <v>0.2725073800884099</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.3141992868257963</v>
+        <v>0.3134436888576243</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>387</v>
@@ -6440,19 +6440,19 @@
         <v>415776</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>382732</v>
+        <v>382057</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>453929</v>
+        <v>453391</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.3158132389832572</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.2907137874611831</v>
+        <v>0.290201076214618</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.3447928863231288</v>
+        <v>0.3443842322487294</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>952</v>
@@ -6461,19 +6461,19 @@
         <v>1012115</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>957956</v>
+        <v>959910</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>1069379</v>
+        <v>1068127</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.3019126158635987</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.2857570193322599</v>
+        <v>0.2863398559179088</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.318994523443218</v>
+        <v>0.3186208671292923</v>
       </c>
     </row>
     <row r="41">
@@ -6490,19 +6490,19 @@
         <v>373347</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>340733</v>
+        <v>338026</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>412314</v>
+        <v>415100</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1833893633832868</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1673692100982497</v>
+        <v>0.1660396221808257</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2025299965027829</v>
+        <v>0.2038981842625162</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>215</v>
@@ -6511,19 +6511,19 @@
         <v>232694</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>204715</v>
+        <v>206817</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>263609</v>
+        <v>264971</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1767483925639737</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1554962108847224</v>
+        <v>0.1570927464617372</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2002310676881306</v>
+        <v>0.2012655326479796</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>567</v>
@@ -6532,19 +6532,19 @@
         <v>606041</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>562140</v>
+        <v>565420</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>655841</v>
+        <v>657160</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1807813336305417</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.167685758941194</v>
+        <v>0.1686641234105175</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1956365503811829</v>
+        <v>0.196029988541261</v>
       </c>
     </row>
     <row r="42">
@@ -6561,19 +6561,19 @@
         <v>730139</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>688951</v>
+        <v>688131</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>780981</v>
+        <v>776871</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.3586464278700456</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.3384149496835183</v>
+        <v>0.3380118576919929</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3836200867741154</v>
+        <v>0.3816015734478762</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>331</v>
@@ -6582,19 +6582,19 @@
         <v>363659</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>331788</v>
+        <v>330483</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>397581</v>
+        <v>398087</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2762258851911721</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2520175881748818</v>
+        <v>0.2510263389004352</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.3019926408243084</v>
+        <v>0.302376772754287</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1017</v>
@@ -6603,19 +6603,19 @@
         <v>1093797</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1042782</v>
+        <v>1036879</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1156548</v>
+        <v>1152042</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.3262783850955205</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.3110605712213123</v>
+        <v>0.3092996203072529</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3449969312969512</v>
+        <v>0.3436525543666667</v>
       </c>
     </row>
     <row r="43">
@@ -6950,19 +6950,19 @@
         <v>7018</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3023</v>
+        <v>2974</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13364</v>
+        <v>13222</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04725906333526352</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02035663999664993</v>
+        <v>0.02002684671166588</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08999779300580464</v>
+        <v>0.08903866770486873</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -6971,19 +6971,19 @@
         <v>4695</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1820</v>
+        <v>1822</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>10368</v>
+        <v>9476</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03863199299487637</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01497341056394976</v>
+        <v>0.01499590914686657</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08531270465746499</v>
+        <v>0.07797138849057783</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>12</v>
@@ -6992,19 +6992,19 @@
         <v>11713</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6664</v>
+        <v>6703</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>20267</v>
+        <v>19244</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04337634301927261</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02468073435187988</v>
+        <v>0.02482190577851199</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0750553869957946</v>
+        <v>0.0712657390238144</v>
       </c>
     </row>
     <row r="5">
@@ -7021,19 +7021,19 @@
         <v>49313</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>37703</v>
+        <v>37975</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>61233</v>
+        <v>61137</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3320759779436586</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2538932285659339</v>
+        <v>0.2557270422196871</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4123458413109801</v>
+        <v>0.4117014855630103</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>29</v>
@@ -7042,19 +7042,19 @@
         <v>28819</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>19476</v>
+        <v>20313</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>37855</v>
+        <v>38383</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2371361520861389</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1602585276237118</v>
+        <v>0.1671472410273288</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.311486366110211</v>
+        <v>0.3158343310187964</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>75</v>
@@ -7063,19 +7063,19 @@
         <v>78132</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>62139</v>
+        <v>63000</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>92907</v>
+        <v>93655</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.289347128391113</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.230120844646075</v>
+        <v>0.2333100714314283</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.344062955421977</v>
+        <v>0.3468328312425299</v>
       </c>
     </row>
     <row r="6">
@@ -7092,19 +7092,19 @@
         <v>30733</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>21524</v>
+        <v>21357</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>40802</v>
+        <v>41055</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2069609393108383</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1449469747035667</v>
+        <v>0.1438167882168361</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2747618858854884</v>
+        <v>0.2764716744210772</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>29</v>
@@ -7113,19 +7113,19 @@
         <v>29015</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>20232</v>
+        <v>19937</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>38084</v>
+        <v>39311</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2387460750563768</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1664771106020788</v>
+        <v>0.1640518050052211</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3133750368192322</v>
+        <v>0.3234693637115046</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>59</v>
@@ -7134,19 +7134,19 @@
         <v>59748</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>47737</v>
+        <v>46645</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>74453</v>
+        <v>73567</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.221266235018001</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1767843021377609</v>
+        <v>0.1727425255256771</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2757224450604944</v>
+        <v>0.2724404366894744</v>
       </c>
     </row>
     <row r="7">
@@ -7163,19 +7163,19 @@
         <v>61434</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>50065</v>
+        <v>48284</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>74093</v>
+        <v>74214</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4137040194102397</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3371397708952217</v>
+        <v>0.3251500820587494</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4989522299339293</v>
+        <v>0.4997635575881678</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>60</v>
@@ -7184,19 +7184,19 @@
         <v>59001</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>48603</v>
+        <v>47279</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>70008</v>
+        <v>70344</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4854857798626079</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3999285978818147</v>
+        <v>0.3890308171273777</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5760560847771485</v>
+        <v>0.578827855177241</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>116</v>
@@ -7205,19 +7205,19 @@
         <v>120435</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>103942</v>
+        <v>103603</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>137961</v>
+        <v>136915</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4460102935716134</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3849297307609882</v>
+        <v>0.3836759448858509</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5109150841692633</v>
+        <v>0.5070405649771917</v>
       </c>
     </row>
     <row r="8">
@@ -7309,19 +7309,19 @@
         <v>51803</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>39331</v>
+        <v>39378</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>65710</v>
+        <v>66324</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1706039467846298</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1295277992940014</v>
+        <v>0.1296849643497496</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2164034026182618</v>
+        <v>0.2184252808344208</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>43</v>
@@ -7330,19 +7330,19 @@
         <v>41130</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>30841</v>
+        <v>30991</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>53798</v>
+        <v>51872</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1565732938353049</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1174070952590905</v>
+        <v>0.1179754018051208</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2047986277846678</v>
+        <v>0.1974671265964294</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>93</v>
@@ -7351,19 +7351,19 @@
         <v>92933</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>76740</v>
+        <v>75833</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>110466</v>
+        <v>113062</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1640960002139447</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1355034808023577</v>
+        <v>0.1339024904068185</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1950539774063829</v>
+        <v>0.1996385037820489</v>
       </c>
     </row>
     <row r="10">
@@ -7380,19 +7380,19 @@
         <v>89605</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>72705</v>
+        <v>72927</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>105830</v>
+        <v>105341</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2950959235618436</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2394408129515886</v>
+        <v>0.2401689720726772</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3485281977972779</v>
+        <v>0.3469179775381894</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>89</v>
@@ -7401,19 +7401,19 @@
         <v>86961</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>72809</v>
+        <v>73674</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>101482</v>
+        <v>102225</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3310425877632373</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2771682759504545</v>
+        <v>0.2804632630743099</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3863214312772217</v>
+        <v>0.3891499590339804</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>174</v>
@@ -7422,19 +7422,19 @@
         <v>176565</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>153812</v>
+        <v>156716</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>199974</v>
+        <v>199683</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3117693435988123</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2715922050190633</v>
+        <v>0.2767200492367408</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.353104042717838</v>
+        <v>0.3525896075629759</v>
       </c>
     </row>
     <row r="11">
@@ -7451,19 +7451,19 @@
         <v>67463</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>52789</v>
+        <v>53360</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>82752</v>
+        <v>83595</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2221766371159294</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1738486899929351</v>
+        <v>0.1757299018795105</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2725286248723091</v>
+        <v>0.2753020263258809</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>52</v>
@@ -7472,19 +7472,19 @@
         <v>50885</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>39435</v>
+        <v>39075</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>64983</v>
+        <v>64197</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1937097681831673</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1501226389644039</v>
+        <v>0.1487507510445924</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2473786321350727</v>
+        <v>0.2443873402561007</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>116</v>
@@ -7493,19 +7493,19 @@
         <v>118348</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>99537</v>
+        <v>99646</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>137411</v>
+        <v>138314</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2089726285271472</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1757575049024741</v>
+        <v>0.1759486621282229</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2426337427704824</v>
+        <v>0.2442272228446846</v>
       </c>
     </row>
     <row r="12">
@@ -7522,19 +7522,19 @@
         <v>94775</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>80391</v>
+        <v>79905</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>112922</v>
+        <v>111670</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3121234925375972</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2647507036179553</v>
+        <v>0.2631505814070942</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3718852138114003</v>
+        <v>0.3677636528400227</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>86</v>
@@ -7543,19 +7543,19 @@
         <v>83712</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>69674</v>
+        <v>68960</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>99317</v>
+        <v>98421</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3186743502182904</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2652373905841935</v>
+        <v>0.2625193243174433</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3780810174137618</v>
+        <v>0.3746703862569862</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>175</v>
@@ -7564,19 +7564,19 @@
         <v>178487</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>156967</v>
+        <v>157015</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>200511</v>
+        <v>200747</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3151620276600958</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2771643373696915</v>
+        <v>0.2772487921689515</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.35405104842091</v>
+        <v>0.3544690116177711</v>
       </c>
     </row>
     <row r="13">
@@ -7668,19 +7668,19 @@
         <v>67504</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>52333</v>
+        <v>52399</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>83759</v>
+        <v>81813</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2007558810995677</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1556374482331376</v>
+        <v>0.1558354756589335</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2490998434764844</v>
+        <v>0.2433118125896577</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>60</v>
@@ -7689,19 +7689,19 @@
         <v>60062</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>47685</v>
+        <v>47501</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>74352</v>
+        <v>74717</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.198339954656829</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1574698807399986</v>
+        <v>0.1568631299312034</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2455312085579979</v>
+        <v>0.2467376863990187</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>122</v>
@@ -7710,19 +7710,19 @@
         <v>127565</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>108479</v>
+        <v>108102</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>149626</v>
+        <v>148586</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1996111006437012</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1697446513323873</v>
+        <v>0.1691556191106063</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2341306469548745</v>
+        <v>0.2325038125614219</v>
       </c>
     </row>
     <row r="15">
@@ -7739,19 +7739,19 @@
         <v>96051</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>79714</v>
+        <v>79347</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>113947</v>
+        <v>113357</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2856567172259844</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2370680714159542</v>
+        <v>0.235976407141422</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3388788957838592</v>
+        <v>0.3371228310605582</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>99</v>
@@ -7760,19 +7760,19 @@
         <v>98575</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>82956</v>
+        <v>83207</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>116169</v>
+        <v>113839</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3255227577358108</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2739431249714073</v>
+        <v>0.2747719040732735</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3836235973153636</v>
+        <v>0.3759272840289316</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>189</v>
@@ -7781,19 +7781,19 @@
         <v>194627</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>171818</v>
+        <v>171380</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>218291</v>
+        <v>216782</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3045471367441783</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2688565113624922</v>
+        <v>0.268171711226149</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3415769597385995</v>
+        <v>0.3392158917235222</v>
       </c>
     </row>
     <row r="16">
@@ -7810,19 +7810,19 @@
         <v>69788</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>55141</v>
+        <v>56099</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>84810</v>
+        <v>85358</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2075486538785028</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1639892735996391</v>
+        <v>0.16683723259146</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2522252426890131</v>
+        <v>0.2538549189507697</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>68</v>
@@ -7831,19 +7831,19 @@
         <v>65462</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>53217</v>
+        <v>51980</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>81407</v>
+        <v>81143</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2161736801732364</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1757375849080594</v>
+        <v>0.171653472382719</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2688275562316503</v>
+        <v>0.2679558648798087</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>137</v>
@@ -7852,19 +7852,19 @@
         <v>135250</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>115155</v>
+        <v>115036</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>157191</v>
+        <v>157529</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2116356001360027</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1801924767515994</v>
+        <v>0.1800050980586007</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2459691921118516</v>
+        <v>0.246498295944813</v>
       </c>
     </row>
     <row r="17">
@@ -7881,19 +7881,19 @@
         <v>102905</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>86176</v>
+        <v>87548</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>119274</v>
+        <v>120832</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3060387477959451</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.256288110812098</v>
+        <v>0.260367805074164</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3547208938648512</v>
+        <v>0.3593535242085502</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>78</v>
@@ -7902,19 +7902,19 @@
         <v>78722</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>63326</v>
+        <v>62639</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>94049</v>
+        <v>94570</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2599636074341238</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2091194849476287</v>
+        <v>0.2068520401022458</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3105748297011718</v>
+        <v>0.3122979018778526</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>175</v>
@@ -7923,19 +7923,19 @@
         <v>181627</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>161196</v>
+        <v>159938</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>204636</v>
+        <v>207756</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2842061624761178</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2522360066975599</v>
+        <v>0.2502667796286095</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3202092906447879</v>
+        <v>0.3250922630745897</v>
       </c>
     </row>
     <row r="18">
@@ -8027,19 +8027,19 @@
         <v>68932</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>53376</v>
+        <v>53575</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>85098</v>
+        <v>84682</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1788730199458206</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1385054108048744</v>
+        <v>0.139021430057897</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2208215517314333</v>
+        <v>0.2197414891073943</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>78</v>
@@ -8048,19 +8048,19 @@
         <v>89516</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>72271</v>
+        <v>73313</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>108451</v>
+        <v>108945</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2841187786461322</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2293826593754912</v>
+        <v>0.2326913694163837</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3442169243909463</v>
+        <v>0.345783049545651</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>139</v>
@@ -8069,19 +8069,19 @@
         <v>158449</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>135840</v>
+        <v>135144</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>183657</v>
+        <v>182176</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.226214000838044</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1939358722272345</v>
+        <v>0.1929417446407387</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2622028240772245</v>
+        <v>0.260088640153014</v>
       </c>
     </row>
     <row r="20">
@@ -8098,19 +8098,19 @@
         <v>105102</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>87398</v>
+        <v>87903</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>125689</v>
+        <v>123836</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2727299498488531</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2267881349148624</v>
+        <v>0.2280986955690009</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3261499556317288</v>
+        <v>0.3213419161598301</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>100</v>
@@ -8119,19 +8119,19 @@
         <v>108153</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>91865</v>
+        <v>90983</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>125525</v>
+        <v>125662</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3432697595938413</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2915718366224041</v>
+        <v>0.2887739562906462</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3984073242434981</v>
+        <v>0.3988406321958471</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>192</v>
@@ -8140,19 +8140,19 @@
         <v>213255</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>188614</v>
+        <v>188838</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>238741</v>
+        <v>239111</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3044597204972609</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2692797965948256</v>
+        <v>0.2696005400989427</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3408449882824234</v>
+        <v>0.3413728575373333</v>
       </c>
     </row>
     <row r="21">
@@ -8169,19 +8169,19 @@
         <v>76206</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>62007</v>
+        <v>62333</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>95490</v>
+        <v>94859</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1977473872702555</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1609023777749684</v>
+        <v>0.1617490522895651</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2477866891555059</v>
+        <v>0.246151043002576</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>54</v>
@@ -8190,19 +8190,19 @@
         <v>56642</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>44524</v>
+        <v>43897</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>71510</v>
+        <v>70708</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1797790098783935</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1413148150525024</v>
+        <v>0.1393246767961938</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2269681722170149</v>
+        <v>0.2244231035881371</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>123</v>
@@ -8211,19 +8211,19 @@
         <v>132849</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>113205</v>
+        <v>112687</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>155142</v>
+        <v>154578</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1896649655054544</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1616199038767594</v>
+        <v>0.1608804371465482</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2214931542734525</v>
+        <v>0.2206881372722753</v>
       </c>
     </row>
     <row r="22">
@@ -8240,19 +8240,19 @@
         <v>135130</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>114480</v>
+        <v>117186</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>154374</v>
+        <v>155410</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3506496429350708</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2970631785455184</v>
+        <v>0.3040858027576087</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4005855533055343</v>
+        <v>0.4032729737531773</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>57</v>
@@ -8261,19 +8261,19 @@
         <v>60755</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>47317</v>
+        <v>47598</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>76221</v>
+        <v>76001</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.192832451881633</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1501794492317438</v>
+        <v>0.1510726990009132</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2419189656950023</v>
+        <v>0.2412213867746716</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>179</v>
@@ -8282,19 +8282,19 @@
         <v>195885</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>173267</v>
+        <v>170810</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>222028</v>
+        <v>221062</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2796613131592406</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2473690834249371</v>
+        <v>0.2438617682025628</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3169845342944502</v>
+        <v>0.3156055984816741</v>
       </c>
     </row>
     <row r="23">
@@ -8386,19 +8386,19 @@
         <v>39593</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>28099</v>
+        <v>28195</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>52848</v>
+        <v>53436</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1414207354103244</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1003667023076998</v>
+        <v>0.1007079242415387</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1887684766106597</v>
+        <v>0.1908663735198235</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>57</v>
@@ -8407,19 +8407,19 @@
         <v>65324</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>52412</v>
+        <v>52552</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>78606</v>
+        <v>80298</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3737118815955049</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2998422851612557</v>
+        <v>0.3006405132817849</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4496939234262968</v>
+        <v>0.4593738278321929</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>92</v>
@@ -8428,19 +8428,19 @@
         <v>104917</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>84498</v>
+        <v>89013</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>123365</v>
+        <v>128133</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2307073021286257</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1858067056135569</v>
+        <v>0.1957347280516717</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.271274084741336</v>
+        <v>0.2817591748480922</v>
       </c>
     </row>
     <row r="25">
@@ -8457,19 +8457,19 @@
         <v>71552</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>56884</v>
+        <v>56683</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>87039</v>
+        <v>87934</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2555752253758995</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2031817617860157</v>
+        <v>0.2024638335335555</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3108922342913888</v>
+        <v>0.3140894038617836</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>33</v>
@@ -8478,19 +8478,19 @@
         <v>39555</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>28852</v>
+        <v>28359</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>51887</v>
+        <v>52494</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2262880712659674</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1650582624109311</v>
+        <v>0.1622370593746889</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2968390833721704</v>
+        <v>0.3003088937140808</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>97</v>
@@ -8499,19 +8499,19 @@
         <v>111107</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>93523</v>
+        <v>92509</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>131393</v>
+        <v>130864</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2443180187093096</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2056536832275563</v>
+        <v>0.2034218615541505</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2889264420119426</v>
+        <v>0.2877636709065711</v>
       </c>
     </row>
     <row r="26">
@@ -8528,19 +8528,19 @@
         <v>59491</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>47302</v>
+        <v>46279</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>76132</v>
+        <v>74218</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.212494409957942</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1689574629957254</v>
+        <v>0.1653020843519367</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2719332447002226</v>
+        <v>0.2650980816911876</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>28</v>
@@ -8549,19 +8549,19 @@
         <v>32927</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>23073</v>
+        <v>23001</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>45865</v>
+        <v>45896</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1883716089215397</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.131996522886068</v>
+        <v>0.1315844317280805</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.262386675611446</v>
+        <v>0.262566667340298</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>81</v>
@@ -8570,19 +8570,19 @@
         <v>92418</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>73798</v>
+        <v>75992</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>110990</v>
+        <v>112275</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2032222438872988</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1622773042442631</v>
+        <v>0.1671018864486833</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2440608115092046</v>
+        <v>0.2468864113638995</v>
       </c>
     </row>
     <row r="27">
@@ -8599,19 +8599,19 @@
         <v>109329</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>92517</v>
+        <v>93168</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>125215</v>
+        <v>127418</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3905096292558341</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3304605905225984</v>
+        <v>0.332784359461448</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4472530161446213</v>
+        <v>0.4551242874662935</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>31</v>
@@ -8620,19 +8620,19 @@
         <v>36992</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>26008</v>
+        <v>26247</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>49691</v>
+        <v>52243</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2116284382169879</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1487895723991661</v>
+        <v>0.1501528136839847</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2842731627362319</v>
+        <v>0.2988768894671692</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>127</v>
@@ -8641,19 +8641,19 @@
         <v>146321</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>127282</v>
+        <v>122943</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>168296</v>
+        <v>167279</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3217524352747659</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2798874376372002</v>
+        <v>0.2703465119810293</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3700756879338085</v>
+        <v>0.3678390673375856</v>
       </c>
     </row>
     <row r="28">
@@ -8745,19 +8745,19 @@
         <v>34944</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>25451</v>
+        <v>25055</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>48741</v>
+        <v>46095</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1893577206909504</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1379127297246532</v>
+        <v>0.1357701779054256</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2641192937405965</v>
+        <v>0.2497802866762592</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>30</v>
@@ -8766,19 +8766,19 @@
         <v>32419</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>24861</v>
+        <v>24322</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>39769</v>
+        <v>39968</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.5732625701347058</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.4396091802432467</v>
+        <v>0.430079814400083</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7032269248903812</v>
+        <v>0.7067510649605793</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>63</v>
@@ -8787,19 +8787,19 @@
         <v>67364</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>53879</v>
+        <v>53940</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>82332</v>
+        <v>83781</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2794083954814868</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2234764822612647</v>
+        <v>0.2237278864843572</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3414934590265105</v>
+        <v>0.3475012483572718</v>
       </c>
     </row>
     <row r="30">
@@ -8816,19 +8816,19 @@
         <v>36715</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>27164</v>
+        <v>26876</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>49218</v>
+        <v>48574</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1989542539266523</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1471946117280956</v>
+        <v>0.1456375675992497</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2667009822656893</v>
+        <v>0.2632142209367023</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>14</v>
@@ -8837,19 +8837,19 @@
         <v>15082</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>8816</v>
+        <v>9329</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>22706</v>
+        <v>23778</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2667011602874498</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1558990208982949</v>
+        <v>0.1649701764440268</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4015129640944329</v>
+        <v>0.4204558368742428</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>50</v>
@@ -8858,19 +8858,19 @@
         <v>51798</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>40470</v>
+        <v>39369</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>64266</v>
+        <v>64358</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.214845312978395</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1678582451014977</v>
+        <v>0.1632927149756332</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2665582102049582</v>
+        <v>0.266939165696668</v>
       </c>
     </row>
     <row r="31">
@@ -8887,19 +8887,19 @@
         <v>34101</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>24891</v>
+        <v>24001</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>45487</v>
+        <v>46194</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1847864096257135</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1348804721323274</v>
+        <v>0.130059287497085</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2464878759213602</v>
+        <v>0.2503188017695471</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>4</v>
@@ -8908,19 +8908,19 @@
         <v>4915</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1782</v>
+        <v>1066</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>12110</v>
+        <v>11794</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.08691164446225495</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.03151628292135365</v>
+        <v>0.0188550552301834</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2141368443977116</v>
+        <v>0.2085425997780693</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>36</v>
@@ -8929,19 +8929,19 @@
         <v>39016</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>28020</v>
+        <v>28315</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>52776</v>
+        <v>51920</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1618284067228979</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1162180109934312</v>
+        <v>0.1174428637167109</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2189000335238026</v>
+        <v>0.2153506656997668</v>
       </c>
     </row>
     <row r="32">
@@ -8958,19 +8958,19 @@
         <v>78781</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>65050</v>
+        <v>64405</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>92288</v>
+        <v>92184</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.4269016157566838</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3524922799613882</v>
+        <v>0.3489990183215857</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.5000894333894227</v>
+        <v>0.4995304559861107</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>4</v>
@@ -8979,19 +8979,19 @@
         <v>4135</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1052</v>
+        <v>1040</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>9277</v>
+        <v>9379</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.07312462511558947</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01859905838078603</v>
+        <v>0.01839153423411072</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1640379519485584</v>
+        <v>0.1658462167524399</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>81</v>
@@ -9000,19 +9000,19 @@
         <v>82917</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>69778</v>
+        <v>66420</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>97684</v>
+        <v>98075</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3439178848172203</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2894198008850747</v>
+        <v>0.275492161963916</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4051670948078104</v>
+        <v>0.4067905480655237</v>
       </c>
     </row>
     <row r="33">
@@ -9104,19 +9104,19 @@
         <v>19978</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>13493</v>
+        <v>13497</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>28528</v>
+        <v>29430</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1530039451103802</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1033429120741819</v>
+        <v>0.1033733217370526</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.218489416259811</v>
+        <v>0.2253966777076005</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>4</v>
@@ -9125,19 +9125,19 @@
         <v>5696</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>1638</v>
+        <v>1850</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>9758</v>
+        <v>9741</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.5157125708491028</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1483225989437732</v>
+        <v>0.1675353019804468</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.8834643899101685</v>
+        <v>0.8819174423272669</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>28</v>
@@ -9146,19 +9146,19 @@
         <v>25674</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>16585</v>
+        <v>17685</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>34903</v>
+        <v>35054</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1812933557650601</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1171170811359541</v>
+        <v>0.1248797316828581</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2464680309929768</v>
+        <v>0.2475292971691123</v>
       </c>
     </row>
     <row r="35">
@@ -9175,19 +9175,19 @@
         <v>23230</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>15444</v>
+        <v>16174</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>31608</v>
+        <v>32064</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1779112145442032</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1182815797816505</v>
+        <v>0.1238756186463868</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2420807892461139</v>
+        <v>0.2455749943853685</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>4</v>
@@ -9196,19 +9196,19 @@
         <v>5349</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>1287</v>
+        <v>1304</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>9407</v>
+        <v>9195</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.4842874291508972</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1165356100898315</v>
+        <v>0.1180825576727332</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.8516774010562266</v>
+        <v>0.832464698019553</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>32</v>
@@ -9217,19 +9217,19 @@
         <v>28579</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>20951</v>
+        <v>20414</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>39168</v>
+        <v>38388</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2018069863422484</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1479436998135633</v>
+        <v>0.1441518685397928</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2765861719384158</v>
+        <v>0.2710755307492851</v>
       </c>
     </row>
     <row r="36">
@@ -9246,19 +9246,19 @@
         <v>29575</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>21322</v>
+        <v>21358</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>38849</v>
+        <v>39964</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.226508630767164</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1633012957595019</v>
+        <v>0.1635776384033375</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2975395060909406</v>
+        <v>0.3060786368801443</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>0</v>
@@ -9280,19 +9280,19 @@
         <v>29575</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>21075</v>
+        <v>21787</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>39298</v>
+        <v>39885</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.208842120466917</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1488225467891785</v>
+        <v>0.1538488363403275</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2774974918763547</v>
+        <v>0.2816491510722892</v>
       </c>
     </row>
     <row r="37">
@@ -9309,19 +9309,19 @@
         <v>57787</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>47637</v>
+        <v>47376</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>68329</v>
+        <v>67545</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.4425762095782527</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.3648432750366141</v>
+        <v>0.3628418418240882</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.523319127315647</v>
+        <v>0.517316044783419</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>0</v>
@@ -9343,19 +9343,19 @@
         <v>57787</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>45461</v>
+        <v>46741</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>68659</v>
+        <v>69119</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.4080575374257744</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.3210225089933588</v>
+        <v>0.3300592526616378</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.484833384007013</v>
+        <v>0.488079290619452</v>
       </c>
     </row>
     <row r="38">
@@ -9447,19 +9447,19 @@
         <v>289772</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>257628</v>
+        <v>260157</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>322247</v>
+        <v>327136</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.1638205578610855</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.1456480077968308</v>
+        <v>0.1470777085739617</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.182179718206831</v>
+        <v>0.1849438373485975</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>277</v>
@@ -9468,19 +9468,19 @@
         <v>298842</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>270820</v>
+        <v>272032</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>334960</v>
+        <v>333515</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.2401304193536786</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.217613664612099</v>
+        <v>0.2185873705689096</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.2691519310252332</v>
+        <v>0.2679914459675781</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>549</v>
@@ -9489,19 +9489,19 @@
         <v>588615</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>543599</v>
+        <v>546354</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>636335</v>
+        <v>637094</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.1953363045828163</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.1803974653207022</v>
+        <v>0.1813118009086019</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.2111728046705061</v>
+        <v>0.211424765056195</v>
       </c>
     </row>
     <row r="40">
@@ -9518,19 +9518,19 @@
         <v>471568</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>432442</v>
+        <v>434335</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>507676</v>
+        <v>508587</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.2665976495946349</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.2444779272596559</v>
+        <v>0.2455479292517377</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2870108478215519</v>
+        <v>0.2875256419795032</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>368</v>
@@ -9539,19 +9539,19 @@
         <v>382494</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>352510</v>
+        <v>349148</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>412862</v>
+        <v>412669</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.3073475113049496</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.2832540639676193</v>
+        <v>0.2805525436876728</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.3317494002545358</v>
+        <v>0.3315940708983744</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>809</v>
@@ -9560,19 +9560,19 @@
         <v>854062</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>804169</v>
+        <v>797172</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>902853</v>
+        <v>899531</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.2834272217559275</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.2668696920445936</v>
+        <v>0.2645478739691464</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.2996187639935882</v>
+        <v>0.298516458333129</v>
       </c>
     </row>
     <row r="41">
@@ -9589,19 +9589,19 @@
         <v>367357</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>335497</v>
+        <v>335615</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>403801</v>
+        <v>401341</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2076826135145499</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1896706889430151</v>
+        <v>0.1897372918887445</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2282859347013824</v>
+        <v>0.2268952609468156</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>235</v>
@@ -9610,19 +9610,19 @@
         <v>239846</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>215276</v>
+        <v>209600</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>270554</v>
+        <v>267734</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1927248910358137</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1729821986372866</v>
+        <v>0.1684209342483229</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2173993799103259</v>
+        <v>0.2151336843642087</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>585</v>
@@ -9631,19 +9631,19 @@
         <v>607203</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>561144</v>
+        <v>561861</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>649066</v>
+        <v>650575</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2015051184444069</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1862201569767501</v>
+        <v>0.1864580032137571</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2153977132908669</v>
+        <v>0.2158985358298783</v>
       </c>
     </row>
     <row r="42">
@@ -9660,19 +9660,19 @@
         <v>640141</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>598469</v>
+        <v>595616</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>685387</v>
+        <v>677675</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.3618991790297297</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.3383398466271505</v>
+        <v>0.3367269282517348</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3874787181217099</v>
+        <v>0.3831185004547458</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>316</v>
@@ -9681,19 +9681,19 @@
         <v>323318</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>289582</v>
+        <v>291002</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>352772</v>
+        <v>352543</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.259797178305558</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2326891972265206</v>
+        <v>0.2338306594577582</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.28346476470259</v>
+        <v>0.2832809334534369</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>921</v>
@@ -9702,19 +9702,19 @@
         <v>963459</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>913039</v>
+        <v>908196</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1015051</v>
+        <v>1018153</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.3197313552168493</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.3029991456309706</v>
+        <v>0.301391858180751</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3368526354897558</v>
+        <v>0.337882030448799</v>
       </c>
     </row>
     <row r="43">
@@ -10052,7 +10052,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13223</v>
+        <v>13531</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02783723675805077</v>
@@ -10061,7 +10061,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1352419197298785</v>
+        <v>0.1383918017410618</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -10070,19 +10070,19 @@
         <v>4630</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13025</v>
+        <v>11717</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.05312886023396588</v>
+        <v>0.05312886023396589</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0139398194130316</v>
+        <v>0.01387994373201724</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1494407647906713</v>
+        <v>0.1344362061431627</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -10091,19 +10091,19 @@
         <v>7352</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1701</v>
+        <v>2499</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>18456</v>
+        <v>19658</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0397569022105899</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.009196304732220009</v>
+        <v>0.01351125100362354</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09979927346139456</v>
+        <v>0.1063022915231143</v>
       </c>
     </row>
     <row r="5">
@@ -10120,19 +10120,19 @@
         <v>33996</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>19729</v>
+        <v>20107</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>49560</v>
+        <v>50252</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.3476966296397798</v>
+        <v>0.3476966296397797</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2017839420750311</v>
+        <v>0.2056464151136148</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5068797507678237</v>
+        <v>0.5139629879513202</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>15</v>
@@ -10141,19 +10141,19 @@
         <v>24993</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>14992</v>
+        <v>14233</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>37489</v>
+        <v>37581</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2867643025635643</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.172016468875969</v>
+        <v>0.1633069553746938</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4301423406859478</v>
+        <v>0.431192326764901</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>28</v>
@@ -10162,19 +10162,19 @@
         <v>58989</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>42233</v>
+        <v>41537</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>79734</v>
+        <v>79290</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.3189798904915467</v>
+        <v>0.3189798904915468</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.228372763050109</v>
+        <v>0.22461138165616</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4311625173925471</v>
+        <v>0.4287567648880529</v>
       </c>
     </row>
     <row r="6">
@@ -10191,19 +10191,19 @@
         <v>25565</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>13751</v>
+        <v>13947</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>41401</v>
+        <v>42019</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2614670626085245</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1406411427825261</v>
+        <v>0.1426437309605796</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4234306709595826</v>
+        <v>0.4297517922645126</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>17</v>
@@ -10212,19 +10212,19 @@
         <v>30642</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>20163</v>
+        <v>19381</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>45519</v>
+        <v>44027</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.3515846088644975</v>
+        <v>0.3515846088644976</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2313519716215562</v>
+        <v>0.2223691524307287</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5222799767208776</v>
+        <v>0.5051608745022839</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>28</v>
@@ -10233,19 +10233,19 @@
         <v>56207</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>39348</v>
+        <v>39203</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>76856</v>
+        <v>75600</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3039384762683806</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2127712251055465</v>
+        <v>0.2119896531827022</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4155965503837618</v>
+        <v>0.4088056392654089</v>
       </c>
     </row>
     <row r="7">
@@ -10262,19 +10262,19 @@
         <v>35492</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>21138</v>
+        <v>22423</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>52448</v>
+        <v>52694</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.3629990709936449</v>
+        <v>0.362999070993645</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2161931383514043</v>
+        <v>0.2293300690991527</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5364194852512498</v>
+        <v>0.5389380664008562</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>14</v>
@@ -10283,19 +10283,19 @@
         <v>26889</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>15286</v>
+        <v>16055</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>40054</v>
+        <v>40808</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3085222283379722</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1753890600583555</v>
+        <v>0.1842160967614871</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4595664378960942</v>
+        <v>0.4682249128683026</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>28</v>
@@ -10304,19 +10304,19 @@
         <v>62381</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>44467</v>
+        <v>43479</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>81359</v>
+        <v>82150</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3373247310294826</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2404562806219364</v>
+        <v>0.2351125572945184</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4399447062467379</v>
+        <v>0.4442256519556391</v>
       </c>
     </row>
     <row r="8">
@@ -10408,19 +10408,19 @@
         <v>33727</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>22692</v>
+        <v>21472</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>49407</v>
+        <v>48811</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1800235801861935</v>
+        <v>0.1800235801861934</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1211195401166966</v>
+        <v>0.1146105259443105</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2637140902369314</v>
+        <v>0.2605346265342022</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>25</v>
@@ -10429,19 +10429,19 @@
         <v>28758</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>19362</v>
+        <v>19836</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>39310</v>
+        <v>40859</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1842198241794139</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1240320794679967</v>
+        <v>0.1270665338454403</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2518172874517301</v>
+        <v>0.2617397405271552</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>45</v>
@@ -10450,19 +10450,19 @@
         <v>62485</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>46458</v>
+        <v>47526</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>79737</v>
+        <v>84495</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1819308393705543</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1352667328621258</v>
+        <v>0.1383751143517762</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2321601634416361</v>
+        <v>0.2460133354528406</v>
       </c>
     </row>
     <row r="10">
@@ -10479,19 +10479,19 @@
         <v>51413</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>36899</v>
+        <v>37368</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>67787</v>
+        <v>68476</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2744234248264939</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1969512335643055</v>
+        <v>0.1994568456795882</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3618189929113473</v>
+        <v>0.3654952454294382</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>41</v>
@@ -10500,19 +10500,19 @@
         <v>42469</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>32521</v>
+        <v>31324</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>55554</v>
+        <v>54619</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.2720486056942449</v>
+        <v>0.2720486056942448</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2083225505725619</v>
+        <v>0.2006568650633944</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3558689811435067</v>
+        <v>0.3498831590139178</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>74</v>
@@ -10521,19 +10521,19 @@
         <v>93882</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>76305</v>
+        <v>75135</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>115746</v>
+        <v>113782</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2733440320150903</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2221673169937832</v>
+        <v>0.2187601374496726</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3370039974930924</v>
+        <v>0.3312846930226909</v>
       </c>
     </row>
     <row r="11">
@@ -10550,19 +10550,19 @@
         <v>48370</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>34114</v>
+        <v>33224</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>64171</v>
+        <v>64197</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.25817842703602</v>
+        <v>0.2581784270360199</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1820851809548062</v>
+        <v>0.1773388776029108</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3425208658828433</v>
+        <v>0.3426562540960806</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>41</v>
@@ -10571,7 +10571,7 @@
         <v>46322</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>34542</v>
+        <v>35106</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>59328</v>
@@ -10580,10 +10580,10 @@
         <v>0.2967311857614294</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2212682388333142</v>
+        <v>0.2248843358109339</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3800438501039746</v>
+        <v>0.3800489027653512</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>72</v>
@@ -10592,19 +10592,19 @@
         <v>94692</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>75713</v>
+        <v>75714</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>117152</v>
+        <v>115017</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.275701264907288</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2204450518902163</v>
+        <v>0.2204469124802029</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3410952828027451</v>
+        <v>0.334879769608027</v>
       </c>
     </row>
     <row r="12">
@@ -10621,19 +10621,19 @@
         <v>53840</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>39031</v>
+        <v>40095</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>68667</v>
+        <v>69427</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2873745679512928</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2083335814731351</v>
+        <v>0.2140117883250277</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3665194668281652</v>
+        <v>0.3705727878619263</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>36</v>
@@ -10642,19 +10642,19 @@
         <v>38558</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>28842</v>
+        <v>28587</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>50492</v>
+        <v>50909</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2470003843649117</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1847599663255946</v>
+        <v>0.183124029121033</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3234464794136497</v>
+        <v>0.326118342530144</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>73</v>
@@ -10663,19 +10663,19 @@
         <v>92398</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>73716</v>
+        <v>74942</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>112229</v>
+        <v>112401</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2690238637070675</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2146283870542075</v>
+        <v>0.2181983952050476</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3267630213523275</v>
+        <v>0.3272635566910024</v>
       </c>
     </row>
     <row r="13">
@@ -10767,19 +10767,19 @@
         <v>38624</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>27848</v>
+        <v>27419</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>51454</v>
+        <v>51136</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1822160765564209</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1313770574204604</v>
+        <v>0.1293555803968403</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2427461156637398</v>
+        <v>0.2412423619007154</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>45</v>
@@ -10788,19 +10788,19 @@
         <v>33083</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>25257</v>
+        <v>25650</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>42686</v>
+        <v>43220</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1648027888882644</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1258174258202976</v>
+        <v>0.127773148147832</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2126403097761877</v>
+        <v>0.215297595786224</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>79</v>
@@ -10809,19 +10809,19 @@
         <v>71707</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>57779</v>
+        <v>56962</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>88524</v>
+        <v>87587</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.1737462010501578</v>
+        <v>0.1737462010501579</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.139999043417955</v>
+        <v>0.1380192479533607</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2144940405356663</v>
+        <v>0.2122226948324093</v>
       </c>
     </row>
     <row r="15">
@@ -10838,19 +10838,19 @@
         <v>58459</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>44072</v>
+        <v>44208</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>73186</v>
+        <v>71425</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2757904787859549</v>
+        <v>0.275790478785955</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2079192487085074</v>
+        <v>0.2085583619033688</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3452669549429367</v>
+        <v>0.3369632812371773</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>104</v>
@@ -10859,19 +10859,19 @@
         <v>78049</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>65727</v>
+        <v>66959</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>89513</v>
+        <v>89362</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3887964825049193</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.3274131806894339</v>
+        <v>0.3335544797385499</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.4459029048191203</v>
+        <v>0.4451505980822437</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>153</v>
@@ -10880,19 +10880,19 @@
         <v>136507</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>119312</v>
+        <v>118838</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>155331</v>
+        <v>154649</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.3307569389513292</v>
+        <v>0.3307569389513291</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2890919679731077</v>
+        <v>0.2879446177153129</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3763673757129697</v>
+        <v>0.3747141015722016</v>
       </c>
     </row>
     <row r="16">
@@ -10909,19 +10909,19 @@
         <v>50143</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>38143</v>
+        <v>38373</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>63810</v>
+        <v>65212</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2365605868384592</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1799467705905392</v>
+        <v>0.1810320909842543</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3010368719530835</v>
+        <v>0.3076508891965102</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>62</v>
@@ -10930,19 +10930,19 @@
         <v>47340</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>38121</v>
+        <v>37744</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>57599</v>
+        <v>58270</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.235819963014258</v>
+        <v>0.2358199630142581</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1898952974268324</v>
+        <v>0.188021297156276</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2869253400334683</v>
+        <v>0.2902683703498715</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>106</v>
@@ -10951,19 +10951,19 @@
         <v>97483</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>82113</v>
+        <v>81165</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>117597</v>
+        <v>115034</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2362003451823458</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.198958688638587</v>
+        <v>0.1966626918380266</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2849376789925914</v>
+        <v>0.2787266922868565</v>
       </c>
     </row>
     <row r="17">
@@ -10980,19 +10980,19 @@
         <v>64742</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>51370</v>
+        <v>51396</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>79234</v>
+        <v>79034</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3054328578191649</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2423466519092125</v>
+        <v>0.2424713829027809</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3738003559440092</v>
+        <v>0.3728583937184119</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>58</v>
@@ -11001,19 +11001,19 @@
         <v>42273</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>33124</v>
+        <v>32961</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>52932</v>
+        <v>52955</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2105807655925583</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1650047515451629</v>
+        <v>0.1641948026176006</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2636793077998722</v>
+        <v>0.263792387431322</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>117</v>
@@ -11022,19 +11022,19 @@
         <v>107015</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>89901</v>
+        <v>90858</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>123244</v>
+        <v>127364</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.2592965148161672</v>
+        <v>0.2592965148161673</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2178302586704157</v>
+        <v>0.2201496564495112</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2986195327080748</v>
+        <v>0.3086016404660716</v>
       </c>
     </row>
     <row r="18">
@@ -11126,19 +11126,19 @@
         <v>58412</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>44269</v>
+        <v>44894</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>73168</v>
+        <v>72425</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.1891974254074183</v>
+        <v>0.1891974254074184</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1433885936380775</v>
+        <v>0.1454122576941677</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.236993252884838</v>
+        <v>0.2345870046181338</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>103</v>
@@ -11147,19 +11147,19 @@
         <v>65956</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>55745</v>
+        <v>55640</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>78965</v>
+        <v>77447</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2505726338242152</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2117809449872431</v>
+        <v>0.2113835434676992</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2999971311757629</v>
+        <v>0.2942278459159282</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>160</v>
@@ -11168,19 +11168,19 @@
         <v>124368</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>108890</v>
+        <v>107129</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>145026</v>
+        <v>142683</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2174429948327473</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1903820356293098</v>
+        <v>0.1873032371500376</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.253562204817575</v>
+        <v>0.2494653051216199</v>
       </c>
     </row>
     <row r="20">
@@ -11197,19 +11197,19 @@
         <v>93607</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>80162</v>
+        <v>77478</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>111652</v>
+        <v>111078</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.3031939155429552</v>
+        <v>0.3031939155429553</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.259648044231611</v>
+        <v>0.250953775162942</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3616432662159372</v>
+        <v>0.3597844441169122</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>116</v>
@@ -11218,19 +11218,19 @@
         <v>73904</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>62386</v>
+        <v>64091</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>85587</v>
+        <v>86448</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2807677721164183</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2370122889517066</v>
+        <v>0.2434881652023891</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3251521772305997</v>
+        <v>0.3284246891603249</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>198</v>
@@ -11239,19 +11239,19 @@
         <v>167511</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>147734</v>
+        <v>146241</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>188268</v>
+        <v>189039</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2928731491058791</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2582953358128312</v>
+        <v>0.2556853543248915</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3291652746436211</v>
+        <v>0.3305125418240536</v>
       </c>
     </row>
     <row r="21">
@@ -11268,19 +11268,19 @@
         <v>68995</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>54297</v>
+        <v>55071</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>85114</v>
+        <v>84585</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.2234766171101173</v>
+        <v>0.2234766171101174</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1758682197809395</v>
+        <v>0.1783775510190215</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2756852343060524</v>
+        <v>0.273971561692974</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>101</v>
@@ -11289,19 +11289,19 @@
         <v>65510</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>54596</v>
+        <v>53743</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>77187</v>
+        <v>77100</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2488776325522032</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2074171208443724</v>
+        <v>0.2041754277395132</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2932396266177788</v>
+        <v>0.2929109083036503</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>164</v>
@@ -11310,19 +11310,19 @@
         <v>134505</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>114119</v>
+        <v>116322</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>152577</v>
+        <v>154273</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2351664535058002</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1995242221949499</v>
+        <v>0.2033755057960757</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2667633820989218</v>
+        <v>0.2697293795097049</v>
       </c>
     </row>
     <row r="22">
@@ -11339,19 +11339,19 @@
         <v>87722</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>71971</v>
+        <v>72498</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>104409</v>
+        <v>105347</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2841320419395091</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2331160166197009</v>
+        <v>0.2348222583696798</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3381821528388096</v>
+        <v>0.3412200984443443</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>88</v>
@@ -11360,19 +11360,19 @@
         <v>57851</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>46799</v>
+        <v>47303</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>69028</v>
+        <v>67887</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2197819615071632</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1777955322759033</v>
+        <v>0.1797077715246332</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2622456358488987</v>
+        <v>0.2579113157862559</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>171</v>
@@ -11381,19 +11381,19 @@
         <v>145573</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>126551</v>
+        <v>124635</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>165711</v>
+        <v>166948</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2545174025555736</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2212606490094507</v>
+        <v>0.2179107274400043</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2897272011037179</v>
+        <v>0.2918887874433447</v>
       </c>
     </row>
     <row r="23">
@@ -11485,19 +11485,19 @@
         <v>58913</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>46614</v>
+        <v>45740</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>73348</v>
+        <v>74143</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1675541690941983</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1325763331122981</v>
+        <v>0.1300892339243622</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2086106464527726</v>
+        <v>0.2108721466486473</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>88</v>
@@ -11506,19 +11506,19 @@
         <v>53658</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>45014</v>
+        <v>44345</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>64774</v>
+        <v>63602</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2392874601500639</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.200737233579687</v>
+        <v>0.1977542417065071</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2888587089448689</v>
+        <v>0.2836306998196437</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>153</v>
@@ -11527,19 +11527,19 @@
         <v>112571</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>96469</v>
+        <v>95107</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>128978</v>
+        <v>128747</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.1954881232344379</v>
+        <v>0.1954881232344378</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1675253938418658</v>
+        <v>0.1651608680970826</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2239807753351535</v>
+        <v>0.2235791753088402</v>
       </c>
     </row>
     <row r="25">
@@ -11556,19 +11556,19 @@
         <v>81166</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>66820</v>
+        <v>67870</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>97394</v>
+        <v>97166</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2308445211717768</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1900432001635718</v>
+        <v>0.1930315295722922</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2769995505801611</v>
+        <v>0.2763519296299193</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>108</v>
@@ -11577,19 +11577,19 @@
         <v>68391</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>58149</v>
+        <v>58416</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>79654</v>
+        <v>79932</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3049876939503455</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2593147825640321</v>
+        <v>0.2605042498101292</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3552166215681462</v>
+        <v>0.3564529105057412</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>194</v>
@@ -11598,19 +11598,19 @@
         <v>149557</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>130975</v>
+        <v>132584</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>168903</v>
+        <v>169779</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.2597169172060732</v>
+        <v>0.2597169172060731</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2274483749172782</v>
+        <v>0.230242218286306</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2933119788994632</v>
+        <v>0.2948338101710936</v>
       </c>
     </row>
     <row r="26">
@@ -11627,19 +11627,19 @@
         <v>87295</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>71661</v>
+        <v>72430</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>102469</v>
+        <v>104069</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2482773900315825</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2038122960465058</v>
+        <v>0.2059990835147765</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2914351489764779</v>
+        <v>0.2959844534829247</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>77</v>
@@ -11648,19 +11648,19 @@
         <v>46672</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>37905</v>
+        <v>38487</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>57026</v>
+        <v>57349</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2081310185832806</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1690373332610053</v>
+        <v>0.1716323830046673</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2543054125999896</v>
+        <v>0.2557452292918634</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>168</v>
@@ -11669,19 +11669,19 @@
         <v>133967</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>116561</v>
+        <v>116649</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>152646</v>
+        <v>153375</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.2326438273938317</v>
+        <v>0.2326438273938316</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.202416974624154</v>
+        <v>0.2025693509076508</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2650809835820083</v>
+        <v>0.2663480338841239</v>
       </c>
     </row>
     <row r="27">
@@ -11698,19 +11698,19 @@
         <v>124230</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>106933</v>
+        <v>107679</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>140696</v>
+        <v>140527</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3533239197024425</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3041312011778458</v>
+        <v>0.3062511750501189</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4001568801906752</v>
+        <v>0.3996749800464111</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>88</v>
@@ -11719,19 +11719,19 @@
         <v>55521</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>46053</v>
+        <v>46723</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>66979</v>
+        <v>67207</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2475938273163101</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2053696769280628</v>
+        <v>0.2083594283268125</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2986888481470393</v>
+        <v>0.2997073243817261</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>224</v>
@@ -11740,19 +11740,19 @@
         <v>179751</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>161542</v>
+        <v>159891</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>201777</v>
+        <v>201743</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3121511321656574</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2805301974163164</v>
+        <v>0.2776624339624513</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.350400351180277</v>
+        <v>0.3503421015747399</v>
       </c>
     </row>
     <row r="28">
@@ -11844,19 +11844,19 @@
         <v>35230</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>26783</v>
+        <v>25972</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>46174</v>
+        <v>46987</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1454184637623451</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1105504106625502</v>
+        <v>0.1072017302748518</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1905891493110549</v>
+        <v>0.1939470584756774</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>63</v>
@@ -11865,19 +11865,19 @@
         <v>35184</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>28143</v>
+        <v>28312</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>42548</v>
+        <v>42151</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3524956201368152</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2819507227293249</v>
+        <v>0.2836446153081856</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4262747811021398</v>
+        <v>0.4222934502532282</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>110</v>
@@ -11886,19 +11886,19 @@
         <v>70414</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>58812</v>
+        <v>58538</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>83404</v>
+        <v>82790</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2058400057885631</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1719230881812729</v>
+        <v>0.1711231624309927</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2438121692989348</v>
+        <v>0.242017680358474</v>
       </c>
     </row>
     <row r="30">
@@ -11915,19 +11915,19 @@
         <v>55119</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>46064</v>
+        <v>44616</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>67425</v>
+        <v>65823</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.2275133384633476</v>
+        <v>0.2275133384633477</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1901354381483831</v>
+        <v>0.1841587787874331</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2783051146681191</v>
+        <v>0.2716944980412633</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>51</v>
@@ -11936,19 +11936,19 @@
         <v>28676</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>22854</v>
+        <v>22736</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>35379</v>
+        <v>35828</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.2872951896970475</v>
+        <v>0.2872951896970476</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2289695049866297</v>
+        <v>0.2277816324428543</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3544497957108765</v>
+        <v>0.3589511236227002</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>126</v>
@@ -11957,19 +11957,19 @@
         <v>83795</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>70870</v>
+        <v>70864</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>97699</v>
+        <v>97696</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2449566513809257</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2071738540889132</v>
+        <v>0.2071564195341726</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.285601303776035</v>
+        <v>0.2855934083156611</v>
       </c>
     </row>
     <row r="31">
@@ -11986,19 +11986,19 @@
         <v>60926</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>49794</v>
+        <v>50446</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>73976</v>
+        <v>73747</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.2514826806268984</v>
+        <v>0.2514826806268985</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2055325999097992</v>
+        <v>0.2082242658588841</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.305347503523231</v>
+        <v>0.3043992817895243</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>23</v>
@@ -12007,19 +12007,19 @@
         <v>12738</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>8261</v>
+        <v>8495</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>18736</v>
+        <v>18637</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1276142777905991</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.08275975533004348</v>
+        <v>0.08511070875768169</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1877077736204878</v>
+        <v>0.1867167607266011</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>108</v>
@@ -12028,19 +12028,19 @@
         <v>73664</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>61423</v>
+        <v>61892</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>85508</v>
+        <v>87761</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2153400174827339</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1795568659681942</v>
+        <v>0.1809273002050192</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.249964909565807</v>
+        <v>0.2565500165445555</v>
       </c>
     </row>
     <row r="32">
@@ -12057,19 +12057,19 @@
         <v>90993</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>78116</v>
+        <v>77111</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>104150</v>
+        <v>104139</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.3755855171474087</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3224344009783115</v>
+        <v>0.3182847322136856</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4298921027276031</v>
+        <v>0.4298485739351972</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>42</v>
@@ -12078,19 +12078,19 @@
         <v>23216</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>17453</v>
+        <v>17654</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>29900</v>
+        <v>30849</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2325949123755381</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.174855400976725</v>
+        <v>0.176870242879974</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2995561652423632</v>
+        <v>0.3090632660460332</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>167</v>
@@ -12099,19 +12099,19 @@
         <v>114209</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>100788</v>
+        <v>98576</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>128997</v>
+        <v>128043</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3338633253477773</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2946316222934592</v>
+        <v>0.2881641811267757</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3770949754383677</v>
+        <v>0.3743055034360954</v>
       </c>
     </row>
     <row r="33">
@@ -12203,19 +12203,19 @@
         <v>19229</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>12755</v>
+        <v>12914</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>27163</v>
+        <v>26991</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1310259116635107</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.08691020017546837</v>
+        <v>0.08800029198263457</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1850890287235607</v>
+        <v>0.1839182009508357</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>15</v>
@@ -12224,19 +12224,19 @@
         <v>9301</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>5968</v>
+        <v>5687</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>13107</v>
+        <v>12749</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.377602508183327</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.242285491985289</v>
+        <v>0.2309063928967659</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.5321374586658691</v>
+        <v>0.5176082162466601</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>43</v>
@@ -12245,19 +12245,19 @@
         <v>28529</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>21208</v>
+        <v>21467</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>37270</v>
+        <v>36358</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1664630679886279</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1237459404766961</v>
+        <v>0.1252571168252952</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2174608592648385</v>
+        <v>0.2121400538292424</v>
       </c>
     </row>
     <row r="35">
@@ -12274,19 +12274,19 @@
         <v>30983</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>23565</v>
+        <v>23589</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>39913</v>
+        <v>41493</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2111209036015715</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1605766564541976</v>
+        <v>0.1607396321681863</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2719673070101917</v>
+        <v>0.28273559956778</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>15</v>
@@ -12295,19 +12295,19 @@
         <v>7896</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>4536</v>
+        <v>4649</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>11849</v>
+        <v>11662</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.3205767337849347</v>
+        <v>0.3205767337849348</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1841452364693937</v>
+        <v>0.1887602106317541</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.4810768188215171</v>
+        <v>0.4734549606622823</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>58</v>
@@ -12316,19 +12316,19 @@
         <v>38879</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>30683</v>
+        <v>30218</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>48337</v>
+        <v>48364</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2268515261328611</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1790312543070413</v>
+        <v>0.1763160801381061</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2820373558054589</v>
+        <v>0.282195250803726</v>
       </c>
     </row>
     <row r="36">
@@ -12345,19 +12345,19 @@
         <v>34556</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>26099</v>
+        <v>26508</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>42463</v>
+        <v>43556</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2354702352373147</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1778396646920343</v>
+        <v>0.1806248350049791</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2893457863521873</v>
+        <v>0.2967945379548619</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>7</v>
@@ -12366,19 +12366,19 @@
         <v>3881</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>1676</v>
+        <v>1701</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>7212</v>
+        <v>7377</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1575483359737659</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.06806023335707635</v>
+        <v>0.06906640250182866</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2928177798457992</v>
+        <v>0.2994828470180348</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>57</v>
@@ -12387,19 +12387,19 @@
         <v>38437</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>29578</v>
+        <v>29646</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>47491</v>
+        <v>48933</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2242715628396668</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1725824524455158</v>
+        <v>0.1729765406386556</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2771005208068613</v>
+        <v>0.2855136204239455</v>
       </c>
     </row>
     <row r="37">
@@ -12416,19 +12416,19 @@
         <v>61987</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>52435</v>
+        <v>51476</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>72076</v>
+        <v>72821</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.4223829494976031</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.3572944608692811</v>
+        <v>0.3507628392225346</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.4911295974530863</v>
+        <v>0.4962073355459851</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>6</v>
@@ -12437,19 +12437,19 @@
         <v>3554</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>1518</v>
+        <v>1472</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>7106</v>
+        <v>6742</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1442724220579724</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.06163541247485426</v>
+        <v>0.05975021428053948</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.288509300245938</v>
+        <v>0.2737400059506919</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>97</v>
@@ -12458,19 +12458,19 @@
         <v>65540</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>55494</v>
+        <v>56085</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>76170</v>
+        <v>76357</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.3824138430388441</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.3237931726682494</v>
+        <v>0.3272445182891063</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.4444340481615279</v>
+        <v>0.445528229342917</v>
       </c>
     </row>
     <row r="38">
@@ -12562,19 +12562,19 @@
         <v>246857</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>218968</v>
+        <v>218535</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>278301</v>
+        <v>278374</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.1596275806774869</v>
+        <v>0.159627580677487</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.1415935351000968</v>
+        <v>0.141313677888469</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.1799604520834066</v>
+        <v>0.1800081508540311</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>342</v>
@@ -12583,19 +12583,19 @@
         <v>230571</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>207332</v>
+        <v>209416</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>253479</v>
+        <v>253968</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.2183611449612207</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.1963534178095624</v>
+        <v>0.198326367448042</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.2400566680406938</v>
+        <v>0.2405191687263498</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>594</v>
@@ -12604,19 +12604,19 @@
         <v>477427</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>439052</v>
+        <v>441477</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>517955</v>
+        <v>516159</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.1834587930850927</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.1687123597897669</v>
+        <v>0.1696443325003871</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.1990322933439441</v>
+        <v>0.1983420778271858</v>
       </c>
     </row>
     <row r="40">
@@ -12633,19 +12633,19 @@
         <v>404742</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>369437</v>
+        <v>369289</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>442309</v>
+        <v>444783</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>0.261722853268416</v>
+        <v>0.2617228532684161</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.2388928546283387</v>
+        <v>0.2387969691478799</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2860146616845022</v>
+        <v>0.2876144879617379</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>450</v>
@@ -12654,19 +12654,19 @@
         <v>324378</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>298242</v>
+        <v>300753</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>350595</v>
+        <v>350830</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.307200688387582</v>
+        <v>0.3072006883875821</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.2824491877970698</v>
+        <v>0.2848272595363797</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.3320300204184482</v>
+        <v>0.3322527991582578</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>831</v>
@@ -12675,19 +12675,19 @@
         <v>729120</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>686470</v>
+        <v>685077</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>778739</v>
+        <v>778980</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.280175538062536</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.2637865219315958</v>
+        <v>0.2632513018000999</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.299242376055707</v>
+        <v>0.2993350311975009</v>
       </c>
     </row>
     <row r="41">
@@ -12704,19 +12704,19 @@
         <v>375851</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>340225</v>
+        <v>339706</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>412468</v>
+        <v>415194</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2430403388878224</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2200030685697314</v>
+        <v>0.219667911492741</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2667185008692001</v>
+        <v>0.2684813736074226</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>328</v>
@@ -12725,19 +12725,19 @@
         <v>253103</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>227109</v>
+        <v>227972</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>277925</v>
+        <v>276663</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.2397007535741368</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2150826210875088</v>
+        <v>0.2159004587177422</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2632080584923371</v>
+        <v>0.2620127559261749</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>703</v>
@@ -12746,19 +12746,19 @@
         <v>628954</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>590225</v>
+        <v>585856</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>671688</v>
+        <v>669600</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.241685298240548</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2268028885254641</v>
+        <v>0.2251243849935122</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2581065550498422</v>
+        <v>0.257304282709804</v>
       </c>
     </row>
     <row r="42">
@@ -12775,19 +12775,19 @@
         <v>519004</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>482514</v>
+        <v>479179</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>557341</v>
+        <v>558199</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.3356092271662746</v>
+        <v>0.3356092271662747</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.3120132240333217</v>
+        <v>0.3098566459576633</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3603994396211931</v>
+        <v>0.3609538465845013</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>332</v>
@@ -12796,19 +12796,19 @@
         <v>247863</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>224768</v>
+        <v>224249</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>273608</v>
+        <v>273555</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2347374130770603</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2128662304518341</v>
+        <v>0.2123740501941535</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2591200163771606</v>
+        <v>0.259068970742954</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>877</v>
@@ -12817,19 +12817,19 @@
         <v>766867</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>718917</v>
+        <v>721418</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>811423</v>
+        <v>811942</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2946803706118233</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2762550639039515</v>
+        <v>0.2772159533026136</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3118017834981893</v>
+        <v>0.3120012516190254</v>
       </c>
     </row>
     <row r="43">
